--- a/data/Data for web team 2021 v7.xlsx
+++ b/data/Data for web team 2021 v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg.sharepoint.com/sites/Team-JC-Research/Shared Documents/50 State Revocations Project/50 State Survey (2021)/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1348" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD657CEC-85F9-4FAF-89E9-346F8DA24A8E}"/>
+  <xr:revisionPtr revIDLastSave="1350" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CFA5E9-955B-43EC-AE15-1C6B1A1015C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admissions 2018" sheetId="1" r:id="rId1"/>
@@ -3271,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IS52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4860,8 +4860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IS53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4976,7 +4976,7 @@
         <v>27590</v>
       </c>
       <c r="D3" s="25">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="E3" s="25">
         <v>2374</v>
@@ -36791,8 +36791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IT52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -36872,7 +36872,7 @@
         <v>4618</v>
       </c>
       <c r="D3" s="51">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E3" s="51">
         <v>1280</v>

--- a/data/Data for web team 2021 v7.xlsx
+++ b/data/Data for web team 2021 v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg.sharepoint.com/sites/Team-JC-Research/Shared Documents/50 State Revocations Project/50 State Survey (2021)/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1350" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CFA5E9-955B-43EC-AE15-1C6B1A1015C1}"/>
+  <xr:revisionPtr revIDLastSave="1362" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DFB932-5334-4F7F-8C1A-AACFA7D91A6E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Population 2018" sheetId="4" r:id="rId4"/>
     <sheet name="Population 2019" sheetId="5" r:id="rId5"/>
     <sheet name="Population 2020" sheetId="6" r:id="rId6"/>
-    <sheet name="States that Submitted" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="127">
+  <si>
+    <t>State Abbrev</t>
+  </si>
   <si>
     <t>States</t>
   </si>
@@ -66,307 +68,304 @@
     <t>Technical parole violation admissions</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
     <t>Alabama</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
   <si>
     <t>Alaska</t>
   </si>
   <si>
+    <t>AZ</t>
+  </si>
+  <si>
     <t>Arizona</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
   <si>
     <t>Arkansas</t>
   </si>
   <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>CO</t>
   </si>
   <si>
     <t>Colorado</t>
   </si>
   <si>
+    <t>CT</t>
+  </si>
+  <si>
     <t>Connecticut</t>
+  </si>
+  <si>
+    <t>DE</t>
   </si>
   <si>
     <t>Delaware</t>
   </si>
   <si>
+    <t>FL</t>
+  </si>
+  <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>GA</t>
   </si>
   <si>
     <t>Georgia</t>
   </si>
   <si>
+    <t>HI</t>
+  </si>
+  <si>
     <t>Hawaii</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Idaho</t>
   </si>
   <si>
+    <t>IL</t>
+  </si>
+  <si>
     <t>Illinois</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
   <si>
     <t>Indiana</t>
   </si>
   <si>
+    <t>IA</t>
+  </si>
+  <si>
     <t>Iowa</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
   <si>
     <t>Kansas</t>
   </si>
   <si>
+    <t>KY</t>
+  </si>
+  <si>
     <t>Kentucky</t>
+  </si>
+  <si>
+    <t>LA</t>
   </si>
   <si>
     <t>Louisiana</t>
   </si>
   <si>
+    <t>ME</t>
+  </si>
+  <si>
     <t>Maine</t>
+  </si>
+  <si>
+    <t>MD</t>
   </si>
   <si>
     <t>Maryland</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
   <si>
     <t>Michigan</t>
   </si>
   <si>
+    <t>MN</t>
+  </si>
+  <si>
     <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
   <si>
     <t>Mississippi</t>
   </si>
   <si>
+    <t>MO</t>
+  </si>
+  <si>
     <t>Missouri</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
   <si>
     <t>Montana</t>
   </si>
   <si>
+    <t>NE</t>
+  </si>
+  <si>
     <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NV</t>
   </si>
   <si>
     <t>Nevada</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NJ</t>
   </si>
   <si>
     <t>New Jersey</t>
   </si>
   <si>
+    <t>NM</t>
+  </si>
+  <si>
     <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
     <t>North Carolina</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
   <si>
     <t>North Dakota</t>
   </si>
   <si>
+    <t>OH</t>
+  </si>
+  <si>
     <t>Ohio</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>Oklahoma</t>
   </si>
   <si>
+    <t>OR</t>
+  </si>
+  <si>
     <t>Oregon</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
   <si>
     <t>Pennsylvania</t>
   </si>
   <si>
+    <t>RI</t>
+  </si>
+  <si>
     <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
   <si>
     <t>South Carolina</t>
   </si>
   <si>
+    <t>SD</t>
+  </si>
+  <si>
     <t>South Dakota</t>
+  </si>
+  <si>
+    <t>TN</t>
   </si>
   <si>
     <t>Tennessee</t>
   </si>
   <si>
+    <t>TX</t>
+  </si>
+  <si>
     <t>Texas</t>
+  </si>
+  <si>
+    <t>UT</t>
   </si>
   <si>
     <t>Utah</t>
   </si>
   <si>
+    <t>VT</t>
+  </si>
+  <si>
     <t>Vermont</t>
+  </si>
+  <si>
+    <t>VA</t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>WA</t>
+  </si>
+  <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>WV</t>
   </si>
   <si>
     <t>West Virginia</t>
   </si>
   <si>
+    <t>WI</t>
+  </si>
+  <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>Wyoming</t>
+    <t>WY</t>
   </si>
   <si>
-    <t>State Abbrev</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>WY</t>
+    <t>Wyoming</t>
   </si>
   <si>
     <t>Admissions Year</t>
@@ -419,18 +418,12 @@
   <si>
     <t>Yes, but they are wrong</t>
   </si>
-  <si>
-    <t>Admissions Data for 2020</t>
-  </si>
-  <si>
-    <t>Population Data for 2020</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -442,19 +435,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,14 +454,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -556,21 +537,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="thin">
@@ -588,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,50 +616,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,26 +1801,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IQ52"/>
+  <dimension ref="A1:IR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="24" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" style="24" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="24" customWidth="1"/>
-    <col min="10" max="251" width="8.85546875" style="24" customWidth="1"/>
-    <col min="252" max="16384" width="8.85546875" style="20"/>
+    <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="24" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" style="24" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="24" customWidth="1"/>
+    <col min="11" max="252" width="8.85546875" style="24" customWidth="1"/>
+    <col min="253" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57" customHeight="1">
+    <row r="1" spans="1:12" ht="57" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
@@ -1897,1354 +1845,1507 @@
       <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="25">
+        <v>10</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="25">
         <v>14054</v>
       </c>
-      <c r="C2" s="25">
+      <c r="D2" s="25">
         <v>6080</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="25">
         <v>3752</v>
       </c>
-      <c r="E2" s="25">
+      <c r="F2" s="25">
         <v>2069</v>
       </c>
-      <c r="F2" s="25">
+      <c r="G2" s="25">
         <v>1683</v>
       </c>
-      <c r="G2" s="25">
+      <c r="H2" s="25">
         <v>2328</v>
       </c>
-      <c r="H2" s="26">
+      <c r="I2" s="26">
         <v>1231</v>
       </c>
-      <c r="I2" s="26">
+      <c r="J2" s="26">
         <v>1097</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
+        <v>12</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="25">
         <v>32627</v>
       </c>
-      <c r="C3" s="25">
+      <c r="D3" s="25">
         <v>4502</v>
       </c>
-      <c r="D3" s="25">
+      <c r="E3" s="25">
         <v>3819</v>
       </c>
-      <c r="E3" s="25">
+      <c r="F3" s="25">
         <v>1789</v>
       </c>
-      <c r="F3" s="25">
+      <c r="G3" s="25">
         <v>2030</v>
       </c>
-      <c r="G3" s="25">
+      <c r="H3" s="25">
         <v>683</v>
       </c>
-      <c r="H3" s="26">
+      <c r="I3" s="26">
         <v>265</v>
       </c>
-      <c r="I3" s="26">
+      <c r="J3" s="26">
         <v>418</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="25">
+        <v>14</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25">
         <v>18361</v>
       </c>
-      <c r="C4" s="25">
+      <c r="D4" s="25">
         <v>8277</v>
       </c>
-      <c r="D4" s="25">
+      <c r="E4" s="25">
         <v>4965</v>
       </c>
-      <c r="E4" s="25">
+      <c r="F4" s="25">
         <v>1720</v>
       </c>
-      <c r="F4" s="25">
+      <c r="G4" s="25">
         <v>3245</v>
       </c>
-      <c r="G4" s="25">
+      <c r="H4" s="25">
         <v>3312</v>
       </c>
-      <c r="H4" s="26">
+      <c r="I4" s="26">
         <v>152</v>
       </c>
-      <c r="I4" s="26">
+      <c r="J4" s="26">
         <v>3160</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="25">
+        <v>16</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="25">
         <v>9204</v>
       </c>
-      <c r="C5" s="25">
+      <c r="D5" s="25">
         <v>4989</v>
       </c>
-      <c r="D5" s="25">
+      <c r="E5" s="25">
         <v>703</v>
       </c>
-      <c r="E5" s="25">
+      <c r="F5" s="25">
         <v>550</v>
       </c>
-      <c r="F5" s="25">
+      <c r="G5" s="25">
         <v>153</v>
       </c>
-      <c r="G5" s="25">
+      <c r="H5" s="25">
         <v>4286</v>
       </c>
-      <c r="H5" s="26">
+      <c r="I5" s="26">
         <v>2542</v>
       </c>
-      <c r="I5" s="26">
+      <c r="J5" s="26">
         <v>1744</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="25">
+        <v>18</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="25">
         <v>35375</v>
       </c>
-      <c r="C6" s="25">
+      <c r="D6" s="25">
         <v>12280</v>
       </c>
-      <c r="D6" s="25">
+      <c r="E6" s="25">
         <v>7920</v>
       </c>
-      <c r="E6" s="25">
+      <c r="F6" s="25">
         <v>3495</v>
       </c>
-      <c r="F6" s="25">
+      <c r="G6" s="25">
         <v>4425</v>
       </c>
-      <c r="G6" s="25">
+      <c r="H6" s="25">
         <v>4360</v>
       </c>
-      <c r="H6" s="26">
+      <c r="I6" s="26">
         <v>4335</v>
       </c>
-      <c r="I6" s="26">
+      <c r="J6" s="26">
         <v>25</v>
       </c>
-      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="25">
+        <v>9985</v>
+      </c>
+      <c r="D7" s="25">
+        <v>3768</v>
+      </c>
+      <c r="E7" s="25">
+        <v>22</v>
+      </c>
+      <c r="F7" s="25">
+        <v>8</v>
+      </c>
+      <c r="G7" s="25">
         <v>14</v>
       </c>
-      <c r="B7" s="25">
-        <v>9985</v>
-      </c>
-      <c r="C7" s="25">
-        <v>3768</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="H7" s="25">
+        <v>3746</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1093</v>
+      </c>
+      <c r="J7" s="26">
+        <v>2653</v>
+      </c>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="25">
-        <v>8</v>
-      </c>
-      <c r="F7" s="25">
-        <v>14</v>
-      </c>
-      <c r="G7" s="25">
-        <v>3746</v>
-      </c>
-      <c r="H7" s="26">
-        <v>1093</v>
-      </c>
-      <c r="I7" s="26">
-        <v>2653</v>
-      </c>
-      <c r="K7" s="38"/>
+      <c r="B8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="25">
+        <v>21018</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1981</v>
+      </c>
+      <c r="E8" s="25">
+        <v>767</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25">
+        <v>1214</v>
+      </c>
+      <c r="I8" s="26">
+        <v>920</v>
+      </c>
+      <c r="J8" s="26">
+        <v>294</v>
+      </c>
+      <c r="L8" s="38"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="25">
-        <v>21018</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1981</v>
-      </c>
-      <c r="D8" s="25">
-        <v>767</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25">
-        <v>1214</v>
-      </c>
-      <c r="H8" s="26">
-        <v>920</v>
-      </c>
-      <c r="I8" s="26">
-        <v>294</v>
-      </c>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="25">
+        <v>24</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="25">
         <v>13358</v>
       </c>
-      <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="27"/>
-      <c r="K9" s="38"/>
+      <c r="J9" s="27"/>
+      <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="25">
+        <v>26</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="25">
         <v>31285</v>
       </c>
-      <c r="C10" s="25">
+      <c r="D10" s="25">
         <v>10773</v>
       </c>
-      <c r="D10" s="25">
+      <c r="E10" s="25">
         <v>9617</v>
       </c>
-      <c r="E10" s="25">
+      <c r="F10" s="25">
         <v>4606</v>
       </c>
-      <c r="F10" s="25">
+      <c r="G10" s="25">
         <v>5011</v>
       </c>
-      <c r="G10" s="25">
+      <c r="H10" s="25">
         <v>1156</v>
       </c>
-      <c r="H10" s="26">
+      <c r="I10" s="26">
         <v>295</v>
       </c>
-      <c r="I10" s="26">
+      <c r="J10" s="26">
         <v>861</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="25">
+        <v>28</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="25">
         <v>18275</v>
       </c>
-      <c r="C11" s="25">
+      <c r="D11" s="25">
         <v>7033</v>
       </c>
-      <c r="D11" s="25">
+      <c r="E11" s="25">
         <v>4635</v>
       </c>
-      <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="25">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25">
         <v>2398</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <v>1441</v>
       </c>
-      <c r="I11" s="26">
+      <c r="J11" s="26">
         <v>957</v>
       </c>
-      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="25">
+        <v>30</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="25">
         <v>7829</v>
       </c>
-      <c r="C12" s="25">
+      <c r="D12" s="25">
         <v>3199</v>
       </c>
-      <c r="D12" s="25">
+      <c r="E12" s="25">
         <v>2896</v>
       </c>
-      <c r="E12" s="25">
+      <c r="F12" s="25">
         <v>1788</v>
       </c>
-      <c r="F12" s="25">
+      <c r="G12" s="25">
         <v>1108</v>
       </c>
-      <c r="G12" s="25">
+      <c r="H12" s="25">
         <v>303</v>
       </c>
-      <c r="H12" s="26">
+      <c r="I12" s="26">
         <v>166</v>
       </c>
-      <c r="I12" s="26">
+      <c r="J12" s="26">
         <v>137</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="25">
+        <v>32</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="25">
         <v>6880</v>
       </c>
-      <c r="C13" s="25">
+      <c r="D13" s="25">
         <v>4922</v>
       </c>
-      <c r="D13" s="25">
+      <c r="E13" s="25">
         <v>3196</v>
       </c>
-      <c r="E13" s="25">
+      <c r="F13" s="25">
         <v>2545</v>
       </c>
-      <c r="F13" s="25">
+      <c r="G13" s="25">
         <v>651</v>
       </c>
-      <c r="G13" s="25">
+      <c r="H13" s="25">
         <v>1726</v>
       </c>
-      <c r="H13" s="26">
+      <c r="I13" s="26">
         <v>1500</v>
       </c>
-      <c r="I13" s="26">
+      <c r="J13" s="26">
         <v>226</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="25">
+        <v>34</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="25">
         <v>23689</v>
       </c>
-      <c r="C14" s="25">
+      <c r="D14" s="25">
         <v>8192</v>
       </c>
-      <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="25">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25">
         <v>8192</v>
       </c>
-      <c r="H14" s="26">
+      <c r="I14" s="26">
         <v>1229</v>
       </c>
-      <c r="I14" s="26">
+      <c r="J14" s="26">
         <v>6963</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="25">
+        <v>36</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="25">
         <v>11498</v>
       </c>
-      <c r="C15" s="25">
+      <c r="D15" s="25">
         <v>5586</v>
       </c>
-      <c r="D15" s="25">
+      <c r="E15" s="25">
         <v>3281</v>
       </c>
-      <c r="E15" s="25">
+      <c r="F15" s="25">
         <v>1453</v>
       </c>
-      <c r="F15" s="25">
+      <c r="G15" s="25">
         <v>1828</v>
       </c>
-      <c r="G15" s="25">
+      <c r="H15" s="25">
         <v>2305</v>
       </c>
-      <c r="H15" s="26">
+      <c r="I15" s="26">
         <v>384</v>
       </c>
-      <c r="I15" s="26">
+      <c r="J15" s="26">
         <v>1921</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="25">
+        <v>38</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="25">
         <v>6227</v>
       </c>
-      <c r="C16" s="25">
+      <c r="D16" s="25">
         <v>3083</v>
       </c>
-      <c r="D16" s="25">
+      <c r="E16" s="25">
         <v>1951</v>
       </c>
-      <c r="E16" s="25">
+      <c r="F16" s="25">
         <v>1526</v>
       </c>
-      <c r="F16" s="25">
+      <c r="G16" s="25">
         <v>425</v>
       </c>
-      <c r="G16" s="25">
+      <c r="H16" s="25">
         <v>1132</v>
       </c>
-      <c r="H16" s="26">
+      <c r="I16" s="26">
         <v>789</v>
       </c>
-      <c r="I16" s="26">
+      <c r="J16" s="26">
         <v>343</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="25">
+        <v>40</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="25">
         <v>6542</v>
       </c>
-      <c r="C17" s="25">
+      <c r="D17" s="25">
         <v>4434</v>
       </c>
-      <c r="D17" s="25">
+      <c r="E17" s="25">
         <v>3106</v>
       </c>
-      <c r="E17" s="25">
+      <c r="F17" s="25">
         <v>451</v>
       </c>
-      <c r="F17" s="25">
+      <c r="G17" s="25">
         <v>2655</v>
       </c>
-      <c r="G17" s="25">
+      <c r="H17" s="25">
         <v>1328</v>
       </c>
-      <c r="H17" s="26">
+      <c r="I17" s="26">
         <v>246</v>
       </c>
-      <c r="I17" s="26">
+      <c r="J17" s="26">
         <v>1082</v>
       </c>
-      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="25">
+        <v>42</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="25">
         <v>20365</v>
       </c>
-      <c r="C18" s="25">
+      <c r="D18" s="25">
         <v>11846</v>
       </c>
-      <c r="D18" s="25">
+      <c r="E18" s="25">
         <v>5368</v>
       </c>
-      <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="25">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25">
         <v>6478</v>
       </c>
-      <c r="H18" s="26">
+      <c r="I18" s="26">
         <v>198</v>
       </c>
-      <c r="I18" s="26">
+      <c r="J18" s="26">
         <v>6280</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="25">
+        <v>44</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="25">
         <v>16005</v>
       </c>
-      <c r="C19" s="25">
+      <c r="D19" s="25">
         <v>7953</v>
       </c>
-      <c r="D19" s="25">
+      <c r="E19" s="25">
         <v>3178</v>
       </c>
-      <c r="E19" s="25">
+      <c r="F19" s="25">
         <v>706</v>
       </c>
-      <c r="F19" s="25">
+      <c r="G19" s="25">
         <v>2472</v>
       </c>
-      <c r="G19" s="25">
+      <c r="H19" s="25">
         <v>4775</v>
       </c>
-      <c r="H19" s="26">
+      <c r="I19" s="26">
         <v>3995</v>
       </c>
-      <c r="I19" s="26">
+      <c r="J19" s="26">
         <v>780</v>
       </c>
-      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="25">
+        <v>46</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="25">
         <v>1300</v>
-      </c>
-      <c r="C20" s="25">
-        <v>548</v>
       </c>
       <c r="D20" s="25">
         <v>548</v>
       </c>
       <c r="E20" s="25">
+        <v>548</v>
+      </c>
+      <c r="F20" s="25">
         <v>243</v>
       </c>
-      <c r="F20" s="25">
+      <c r="G20" s="25">
         <v>305</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="27"/>
-      <c r="K20" s="38"/>
+      <c r="J20" s="27"/>
+      <c r="L20" s="38"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="25">
+        <v>48</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="25">
         <v>7761</v>
       </c>
-      <c r="C21" s="25">
+      <c r="D21" s="25">
         <v>2169</v>
       </c>
-      <c r="D21" s="25">
+      <c r="E21" s="25">
         <v>1117</v>
       </c>
-      <c r="E21" s="25">
+      <c r="F21" s="25">
         <v>147</v>
       </c>
-      <c r="F21" s="25">
+      <c r="G21" s="25">
         <v>970</v>
       </c>
-      <c r="G21" s="25">
+      <c r="H21" s="25">
         <v>1052</v>
       </c>
-      <c r="H21" s="26">
+      <c r="I21" s="26">
         <v>148</v>
       </c>
-      <c r="I21" s="26">
+      <c r="J21" s="26">
         <v>904</v>
       </c>
-      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="25">
+        <v>50</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="25">
         <v>2327</v>
       </c>
-      <c r="C22" s="25">
+      <c r="D22" s="25">
         <v>237</v>
       </c>
-      <c r="D22" s="25">
+      <c r="E22" s="25">
         <v>17</v>
       </c>
-      <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="25">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25">
         <v>220</v>
       </c>
-      <c r="H22" s="26">
+      <c r="I22" s="26">
         <v>46</v>
       </c>
-      <c r="I22" s="26">
+      <c r="J22" s="26">
         <v>174</v>
       </c>
-      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="25">
+        <v>52</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="25">
         <v>9188</v>
       </c>
-      <c r="C23" s="25">
+      <c r="D23" s="25">
         <v>4658</v>
       </c>
-      <c r="D23" s="25">
+      <c r="E23" s="25">
         <v>2073</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F23" s="25">
         <v>1011</v>
       </c>
-      <c r="F23" s="25">
+      <c r="G23" s="25">
         <v>1061</v>
       </c>
-      <c r="G23" s="25">
+      <c r="H23" s="25">
         <v>2585</v>
       </c>
-      <c r="H23" s="26">
+      <c r="I23" s="26">
         <v>989</v>
       </c>
-      <c r="I23" s="26">
+      <c r="J23" s="26">
         <v>1596</v>
       </c>
-      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
+    <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="25">
+        <v>54</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="25">
         <v>7767</v>
       </c>
-      <c r="C24" s="25">
+      <c r="D24" s="25">
         <v>4938</v>
       </c>
-      <c r="D24" s="25">
+      <c r="E24" s="25">
         <v>1774</v>
       </c>
-      <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="25">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25">
         <v>3164</v>
       </c>
-      <c r="H24" s="26">
+      <c r="I24" s="26">
         <v>393</v>
       </c>
-      <c r="I24" s="26">
+      <c r="J24" s="26">
         <v>2771</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="25">
+        <v>56</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="25">
         <v>8626</v>
       </c>
-      <c r="C25" s="25">
+      <c r="D25" s="25">
         <v>3869</v>
       </c>
-      <c r="D25" s="25">
+      <c r="E25" s="25">
         <v>1882</v>
       </c>
-      <c r="E25" s="25">
+      <c r="F25" s="25">
         <v>563</v>
       </c>
-      <c r="F25" s="25">
+      <c r="G25" s="25">
         <v>1319</v>
       </c>
-      <c r="G25" s="25">
+      <c r="H25" s="25">
         <v>1987</v>
       </c>
-      <c r="H25" s="26">
+      <c r="I25" s="26">
         <v>392</v>
       </c>
-      <c r="I25" s="26">
+      <c r="J25" s="26">
         <v>1595</v>
       </c>
-      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="25">
+        <v>58</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="25">
         <v>18032</v>
       </c>
-      <c r="C26" s="25">
+      <c r="D26" s="25">
         <v>13987</v>
       </c>
-      <c r="D26" s="25">
+      <c r="E26" s="25">
         <v>7582</v>
       </c>
-      <c r="E26" s="25">
+      <c r="F26" s="25">
         <v>2647</v>
       </c>
-      <c r="F26" s="25">
+      <c r="G26" s="25">
         <v>4935</v>
       </c>
-      <c r="G26" s="25">
+      <c r="H26" s="25">
         <v>6405</v>
       </c>
-      <c r="H26" s="26">
+      <c r="I26" s="26">
         <v>1229</v>
       </c>
-      <c r="I26" s="26">
+      <c r="J26" s="26">
         <v>5176</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="25">
+        <v>60</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="25">
         <v>1313</v>
       </c>
-      <c r="C27" s="25">
+      <c r="D27" s="25">
         <v>490</v>
       </c>
-      <c r="D27" s="26">
+      <c r="E27" s="26">
         <v>268</v>
       </c>
-      <c r="E27" s="26">
+      <c r="F27" s="26">
         <v>74</v>
       </c>
-      <c r="F27" s="26">
+      <c r="G27" s="26">
         <v>194</v>
       </c>
-      <c r="G27" s="25">
+      <c r="H27" s="25">
         <v>222</v>
       </c>
-      <c r="H27" s="26">
+      <c r="I27" s="26">
         <v>18</v>
       </c>
-      <c r="I27" s="26">
+      <c r="J27" s="26">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="25">
+        <v>62</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="25">
         <v>2724</v>
       </c>
-      <c r="C28" s="25">
+      <c r="D28" s="25">
         <v>634</v>
       </c>
-      <c r="D28" s="25">
+      <c r="E28" s="25">
         <v>250</v>
       </c>
-      <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="25">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25">
         <v>384</v>
       </c>
-      <c r="H28" s="26">
+      <c r="I28" s="26">
         <v>199</v>
       </c>
-      <c r="I28" s="26">
+      <c r="J28" s="26">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
+    <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="25">
+        <v>64</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="25">
         <v>6522</v>
       </c>
-      <c r="C29" s="25">
+      <c r="D29" s="25">
         <v>2580</v>
       </c>
-      <c r="D29" s="25">
+      <c r="E29" s="25">
         <v>1491</v>
       </c>
-      <c r="E29" s="25">
+      <c r="F29" s="25">
         <v>64</v>
       </c>
-      <c r="F29" s="25">
+      <c r="G29" s="25">
         <v>1427</v>
       </c>
-      <c r="G29" s="25">
+      <c r="H29" s="25">
         <v>1089</v>
       </c>
-      <c r="H29" s="26">
+      <c r="I29" s="26">
         <v>16</v>
       </c>
-      <c r="I29" s="26">
+      <c r="J29" s="26">
         <v>1073</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="25">
+        <v>66</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="25">
         <v>1428</v>
       </c>
-      <c r="C30" s="25">
+      <c r="D30" s="25">
         <v>851</v>
       </c>
-      <c r="D30" s="25">
+      <c r="E30" s="25">
         <v>145</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26">
+      <c r="F30" s="25"/>
+      <c r="G30" s="26">
         <v>162</v>
       </c>
-      <c r="G30" s="26">
+      <c r="H30" s="26">
         <v>648</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="26">
+      <c r="I30" s="27"/>
+      <c r="J30" s="26">
         <v>689</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="25">
+        <v>68</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="25">
         <v>8050</v>
       </c>
-      <c r="C31" s="25">
+      <c r="D31" s="25">
         <v>683</v>
       </c>
-      <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="25">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25">
         <v>683</v>
       </c>
-      <c r="H31" s="26">
+      <c r="I31" s="26">
         <v>19</v>
       </c>
-      <c r="I31" s="26">
+      <c r="J31" s="26">
         <v>664</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="25">
+        <v>72</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="25">
         <v>23104</v>
       </c>
-      <c r="C33" s="25">
+      <c r="D33" s="25">
         <v>11365</v>
       </c>
-      <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="25">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25">
         <v>11365</v>
       </c>
-      <c r="H33" s="26">
+      <c r="I33" s="26">
         <v>1381</v>
       </c>
-      <c r="I33" s="26">
+      <c r="J33" s="26">
         <v>9984</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="25">
+        <v>74</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="25">
         <v>25209</v>
       </c>
-      <c r="C34" s="25">
+      <c r="D34" s="25">
         <v>14964</v>
       </c>
-      <c r="D34" s="25">
+      <c r="E34" s="25">
         <v>8990</v>
       </c>
-      <c r="E34" s="25">
+      <c r="F34" s="25">
         <v>6560</v>
       </c>
-      <c r="F34" s="25">
+      <c r="G34" s="25">
         <v>2430</v>
       </c>
-      <c r="G34" s="25">
+      <c r="H34" s="25">
         <v>5974</v>
       </c>
-      <c r="H34" s="26">
+      <c r="I34" s="26">
         <v>5929</v>
       </c>
-      <c r="I34" s="26">
+      <c r="J34" s="26">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="25">
+        <v>76</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="25">
         <v>1527</v>
       </c>
-      <c r="C35" s="25">
+      <c r="D35" s="25">
         <v>763</v>
       </c>
-      <c r="D35" s="25">
+      <c r="E35" s="25">
         <v>447</v>
       </c>
-      <c r="E35" s="25">
+      <c r="F35" s="25">
         <v>95</v>
       </c>
-      <c r="F35" s="25">
+      <c r="G35" s="25">
         <v>356</v>
       </c>
-      <c r="G35" s="25">
+      <c r="H35" s="25">
         <v>316</v>
       </c>
-      <c r="H35" s="26">
+      <c r="I35" s="26">
         <v>195</v>
       </c>
-      <c r="I35" s="26">
+      <c r="J35" s="26">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1">
+    <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="25">
+        <v>78</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="25">
         <v>20697</v>
       </c>
-      <c r="C36" s="25">
+      <c r="D36" s="25">
         <v>6335</v>
       </c>
-      <c r="D36" s="25">
+      <c r="E36" s="25">
         <v>3234</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25">
         <v>3234</v>
       </c>
-      <c r="G36" s="25">
+      <c r="H36" s="25">
         <v>3101</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27">
+      <c r="I36" s="27"/>
+      <c r="J36" s="27">
         <v>3101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1">
+    <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="25">
+        <v>80</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="25">
         <v>10777</v>
       </c>
-      <c r="C37" s="25">
+      <c r="D37" s="25">
         <v>2151</v>
       </c>
-      <c r="D37" s="25">
+      <c r="E37" s="25">
         <v>2106</v>
       </c>
-      <c r="E37" s="25">
+      <c r="F37" s="25">
         <v>1039</v>
       </c>
-      <c r="F37" s="25">
+      <c r="G37" s="25">
         <v>1067</v>
       </c>
-      <c r="G37" s="25">
+      <c r="H37" s="25">
         <v>45</v>
       </c>
-      <c r="H37" s="27"/>
       <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+    <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="25">
+        <v>82</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="25">
         <v>9587</v>
       </c>
-      <c r="C38" s="25">
+      <c r="D38" s="25">
         <v>4466</v>
       </c>
-      <c r="D38" s="25">
+      <c r="E38" s="25">
         <v>4132</v>
       </c>
-      <c r="E38" s="25">
+      <c r="F38" s="25">
         <v>1433</v>
       </c>
-      <c r="F38" s="25">
+      <c r="G38" s="25">
         <v>2699</v>
       </c>
-      <c r="G38" s="25">
+      <c r="H38" s="25">
         <v>334</v>
       </c>
-      <c r="H38" s="26">
+      <c r="I38" s="26">
         <v>88</v>
       </c>
-      <c r="I38" s="26">
+      <c r="J38" s="26">
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1">
+    <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="25">
+        <v>84</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="25">
         <v>19793</v>
       </c>
-      <c r="C39" s="25">
+      <c r="D39" s="25">
         <v>8579</v>
       </c>
-      <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="25">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25">
         <v>8579</v>
       </c>
-      <c r="H39" s="26">
+      <c r="I39" s="26">
         <v>4189</v>
       </c>
-      <c r="I39" s="26">
+      <c r="J39" s="26">
         <v>4390</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1">
+    <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="25">
+        <v>86</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="25">
         <v>3270</v>
       </c>
-      <c r="C40" s="25">
+      <c r="D40" s="25">
         <v>1476</v>
       </c>
-      <c r="D40" s="25">
+      <c r="E40" s="25">
         <v>1341</v>
       </c>
-      <c r="E40" s="25">
+      <c r="F40" s="25">
         <v>1044</v>
       </c>
-      <c r="F40" s="25">
+      <c r="G40" s="25">
         <v>297</v>
       </c>
-      <c r="G40" s="25">
+      <c r="H40" s="25">
         <v>135</v>
       </c>
-      <c r="H40" s="26">
+      <c r="I40" s="26">
         <v>54</v>
       </c>
-      <c r="I40" s="26">
+      <c r="J40" s="26">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1">
+    <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="25">
+        <v>88</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="25">
         <v>7250</v>
       </c>
-      <c r="C41" s="25">
+      <c r="D41" s="25">
         <v>1356</v>
       </c>
-      <c r="D41" s="25">
+      <c r="E41" s="25">
         <v>818</v>
       </c>
-      <c r="E41" s="25"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="25">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25">
         <v>538</v>
       </c>
-      <c r="H41" s="27"/>
       <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1">
+    <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="25">
+        <v>90</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="25">
         <v>4284</v>
       </c>
-      <c r="C42" s="25">
+      <c r="D42" s="25">
         <v>3057</v>
       </c>
-      <c r="D42" s="25">
+      <c r="E42" s="25">
         <v>707</v>
       </c>
-      <c r="E42" s="25">
+      <c r="F42" s="25">
         <v>181</v>
       </c>
-      <c r="F42" s="25">
+      <c r="G42" s="25">
         <v>526</v>
       </c>
-      <c r="G42" s="25">
+      <c r="H42" s="25">
         <v>2350</v>
       </c>
-      <c r="H42" s="26">
+      <c r="I42" s="26">
         <v>179</v>
       </c>
-      <c r="I42" s="26">
+      <c r="J42" s="26">
         <v>2171</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
+    <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="A43" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="25">
+        <v>92</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="25">
         <v>11369</v>
       </c>
-      <c r="C43" s="25">
+      <c r="D43" s="25">
         <v>4398</v>
       </c>
-      <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="25">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25">
         <v>4398</v>
       </c>
-      <c r="H43" s="27"/>
       <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1">
+    <row r="44" spans="1:10" ht="15" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="25">
+        <v>94</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="25">
         <v>65710</v>
       </c>
-      <c r="C44" s="25">
+      <c r="D44" s="25">
         <v>28500</v>
       </c>
-      <c r="D44" s="25">
+      <c r="E44" s="25">
         <v>21121</v>
       </c>
-      <c r="E44" s="25">
+      <c r="F44" s="25">
         <v>10433</v>
       </c>
-      <c r="F44" s="25">
+      <c r="G44" s="25">
         <v>10688</v>
       </c>
-      <c r="G44" s="25">
+      <c r="H44" s="25">
         <v>7379</v>
       </c>
-      <c r="H44" s="26">
+      <c r="I44" s="26">
         <v>5282</v>
       </c>
-      <c r="I44" s="26">
+      <c r="J44" s="26">
         <v>2097</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="A45" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="25">
+        <v>96</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="25">
         <v>3746</v>
       </c>
-      <c r="C45" s="25">
+      <c r="D45" s="25">
         <v>2999</v>
       </c>
-      <c r="D45" s="25">
+      <c r="E45" s="25">
         <v>1030</v>
       </c>
-      <c r="E45" s="25">
+      <c r="F45" s="25">
         <v>598</v>
       </c>
-      <c r="F45" s="25">
+      <c r="G45" s="25">
         <v>432</v>
       </c>
-      <c r="G45" s="25">
+      <c r="H45" s="25">
         <v>1969</v>
       </c>
-      <c r="H45" s="26">
+      <c r="I45" s="26">
         <v>670</v>
       </c>
-      <c r="I45" s="26">
+      <c r="J45" s="26">
         <v>1299</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1">
+    <row r="46" spans="1:10" ht="15" customHeight="1">
       <c r="A46" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="26">
+        <v>98</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="26">
         <v>7774</v>
       </c>
-      <c r="C46" s="25">
+      <c r="D46" s="25">
         <v>605</v>
       </c>
-      <c r="D46" s="26">
+      <c r="E46" s="26">
         <v>252</v>
       </c>
-      <c r="E46" s="27"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="26">
+      <c r="G46" s="27"/>
+      <c r="H46" s="26">
         <v>353</v>
       </c>
-      <c r="H46" s="27"/>
       <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1">
+    <row r="47" spans="1:10" ht="15" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="25">
+        <v>100</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="25">
         <v>12077</v>
       </c>
-      <c r="C47" s="25">
+      <c r="D47" s="25">
         <v>6209</v>
       </c>
-      <c r="D47" s="25">
+      <c r="E47" s="25">
         <v>6159</v>
       </c>
-      <c r="E47" s="25">
+      <c r="F47" s="25">
         <v>4580</v>
       </c>
-      <c r="F47" s="25">
+      <c r="G47" s="25">
         <v>1579</v>
       </c>
-      <c r="G47" s="25">
+      <c r="H47" s="25">
         <v>50</v>
       </c>
-      <c r="H47" s="26">
+      <c r="I47" s="26">
         <v>37</v>
       </c>
-      <c r="I47" s="26">
+      <c r="J47" s="26">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="29">
+    <row r="48" spans="1:10" ht="15" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="29">
         <v>8100</v>
       </c>
-      <c r="C48" s="29">
+      <c r="D48" s="29">
         <v>3363</v>
       </c>
-      <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
-      <c r="G48" s="29">
+      <c r="G48" s="29"/>
+      <c r="H48" s="29">
         <v>3363</v>
       </c>
-      <c r="H48" s="29">
+      <c r="I48" s="29">
         <v>1946</v>
       </c>
-      <c r="I48" s="29">
+      <c r="J48" s="29">
         <v>1417</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1">
+    <row r="49" spans="1:10" ht="15" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="25">
+        <v>104</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="25">
         <v>3881</v>
       </c>
-      <c r="C49" s="25">
+      <c r="D49" s="25">
         <v>1144</v>
       </c>
-      <c r="D49" s="25">
+      <c r="E49" s="25">
         <v>530</v>
       </c>
-      <c r="E49" s="25">
+      <c r="F49" s="25">
         <v>9</v>
       </c>
-      <c r="F49" s="25">
+      <c r="G49" s="25">
         <v>521</v>
       </c>
-      <c r="G49" s="25">
+      <c r="H49" s="25">
         <v>614</v>
       </c>
-      <c r="H49" s="26">
+      <c r="I49" s="26">
         <v>315</v>
       </c>
-      <c r="I49" s="26">
+      <c r="J49" s="26">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1">
+    <row r="50" spans="1:10" ht="15" customHeight="1">
       <c r="A50" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="25">
+        <v>106</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="25">
         <v>9374</v>
       </c>
-      <c r="C50" s="25">
+      <c r="D50" s="25">
         <v>6556</v>
       </c>
-      <c r="D50" s="25">
+      <c r="E50" s="25">
         <v>2718</v>
       </c>
-      <c r="E50" s="25">
+      <c r="F50" s="25">
         <v>1074</v>
       </c>
-      <c r="F50" s="25">
+      <c r="G50" s="25">
         <v>1644</v>
       </c>
-      <c r="G50" s="25">
+      <c r="H50" s="25">
         <v>3838</v>
       </c>
-      <c r="H50" s="26">
+      <c r="I50" s="26">
         <v>1414</v>
       </c>
-      <c r="I50" s="26">
+      <c r="J50" s="26">
         <v>2424</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1">
+    <row r="51" spans="1:10" ht="15" customHeight="1">
       <c r="A51" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="25">
+        <v>108</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="25">
         <v>1084</v>
       </c>
-      <c r="C51" s="25">
+      <c r="D51" s="25">
         <v>597</v>
       </c>
-      <c r="D51" s="25">
+      <c r="E51" s="25">
         <v>259</v>
       </c>
-      <c r="E51" s="25">
+      <c r="F51" s="25">
         <v>34</v>
       </c>
-      <c r="F51" s="25">
+      <c r="G51" s="25">
         <v>225</v>
       </c>
-      <c r="G51" s="25">
+      <c r="H51" s="25">
         <v>338</v>
       </c>
-      <c r="H51" s="26">
+      <c r="I51" s="26">
         <v>37</v>
       </c>
-      <c r="I51" s="26">
+      <c r="J51" s="26">
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1">
+    <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -3254,10 +3355,11 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
-    <sortCondition ref="A2:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J52">
+    <sortCondition ref="B2:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3271,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IS52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3286,43 +3388,43 @@
   <sheetData>
     <row r="1" spans="1:11" ht="57" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="25">
         <v>14148</v>
@@ -3352,10 +3454,10 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="25">
         <v>34734</v>
@@ -3385,10 +3487,10 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="25">
         <v>18159</v>
@@ -3418,10 +3520,10 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="25">
         <v>9289</v>
@@ -3451,10 +3553,10 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="25">
         <v>34508</v>
@@ -3484,10 +3586,10 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="25">
         <v>9691</v>
@@ -3517,10 +3619,10 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="25">
         <v>19535</v>
@@ -3546,10 +3648,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" s="25">
         <v>11573</v>
@@ -3565,10 +3667,10 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="25">
         <v>31669</v>
@@ -3598,10 +3700,10 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C11" s="25">
         <v>18967</v>
@@ -3627,10 +3729,10 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="25">
         <v>8270</v>
@@ -3660,10 +3762,10 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C13" s="25">
         <v>7323</v>
@@ -3693,10 +3795,10 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C14" s="25">
         <v>22363</v>
@@ -3720,10 +3822,10 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C15" s="25">
         <v>10942</v>
@@ -3753,10 +3855,10 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C16" s="25">
         <v>6287</v>
@@ -3786,10 +3888,10 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C17" s="25">
         <v>6388</v>
@@ -3819,10 +3921,10 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="25">
         <v>19693</v>
@@ -3848,10 +3950,10 @@
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="25">
         <v>16226</v>
@@ -3881,10 +3983,10 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C20" s="25">
         <v>1102</v>
@@ -3908,10 +4010,10 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C21" s="25">
         <v>7392</v>
@@ -3941,10 +4043,10 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C22" s="25">
         <v>2200</v>
@@ -3970,10 +4072,10 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C23" s="25">
         <v>8686</v>
@@ -4003,10 +4105,10 @@
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C24" s="25">
         <v>7123</v>
@@ -4032,10 +4134,10 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C25" s="25">
         <v>8028</v>
@@ -4065,10 +4167,10 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C26" s="25">
         <v>15025</v>
@@ -4098,10 +4200,10 @@
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C27" s="25">
         <v>1439</v>
@@ -4131,10 +4233,10 @@
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C28" s="25">
         <v>2850</v>
@@ -4160,10 +4262,10 @@
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C29" s="25">
         <v>5971</v>
@@ -4193,10 +4295,10 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C30" s="25">
         <v>1319</v>
@@ -4222,10 +4324,10 @@
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C31" s="25">
         <v>7469</v>
@@ -4249,10 +4351,10 @@
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4266,10 +4368,10 @@
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" s="22" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C33" s="25">
         <v>21533</v>
@@ -4293,10 +4395,10 @@
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" s="22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C34" s="25">
         <v>24222</v>
@@ -4326,10 +4428,10 @@
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" s="22" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C35" s="25">
         <v>1530</v>
@@ -4359,10 +4461,10 @@
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C36" s="25">
         <v>20194</v>
@@ -4388,10 +4490,10 @@
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C37" s="25">
         <v>9384</v>
@@ -4417,10 +4519,10 @@
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C38" s="25">
         <v>9057</v>
@@ -4450,10 +4552,10 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C39" s="25">
         <v>18166</v>
@@ -4477,10 +4579,10 @@
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C40" s="25">
         <v>3054</v>
@@ -4510,10 +4612,10 @@
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="22" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C41" s="25">
         <v>7386</v>
@@ -4535,10 +4637,10 @@
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="22" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C42" s="25">
         <v>4465</v>
@@ -4568,10 +4670,10 @@
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
       <c r="A43" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C43" s="25">
         <v>11573</v>
@@ -4591,10 +4693,10 @@
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C44" s="25">
         <v>62621</v>
@@ -4624,10 +4726,10 @@
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
       <c r="A45" s="22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C45" s="25">
         <v>4057</v>
@@ -4657,10 +4759,10 @@
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
       <c r="A46" s="22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C46" s="26">
         <v>7681</v>
@@ -4682,10 +4784,10 @@
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C47" s="25">
         <v>11864</v>
@@ -4707,10 +4809,10 @@
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
       <c r="A48" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C48" s="29">
         <v>7697</v>
@@ -4734,10 +4836,10 @@
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C49" s="25">
         <v>3885</v>
@@ -4767,10 +4869,10 @@
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1">
       <c r="A50" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C50" s="25">
         <v>9205</v>
@@ -4800,10 +4902,10 @@
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1">
       <c r="A51" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="C51" s="25">
         <v>1116</v>
@@ -4860,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IS53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4877,34 +4979,34 @@
   <sheetData>
     <row r="1" spans="1:15" ht="63.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>110</v>
@@ -4922,10 +5024,10 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="25">
         <v>10080</v>
@@ -4967,10 +5069,10 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="25">
         <v>27590</v>
@@ -5012,10 +5114,10 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="25">
         <v>15480</v>
@@ -5057,10 +5159,10 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="25">
         <v>7770</v>
@@ -5102,10 +5204,10 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="25">
         <v>11574</v>
@@ -5147,10 +5249,10 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="25">
         <v>7982</v>
@@ -5192,10 +5294,10 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="25">
         <v>10699</v>
@@ -5233,10 +5335,10 @@
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" s="25">
         <v>9937</v>
@@ -5264,10 +5366,10 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="25">
         <v>24085</v>
@@ -5309,10 +5411,10 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C11" s="25">
         <v>10290</v>
@@ -5350,10 +5452,10 @@
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="25">
         <v>6158</v>
@@ -5395,10 +5497,10 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C13" s="25">
         <v>5732</v>
@@ -5440,10 +5542,10 @@
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C14" s="25">
         <v>11635</v>
@@ -5479,10 +5581,10 @@
     </row>
     <row r="15" spans="1:15" ht="76.5" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -5502,10 +5604,10 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C16" s="25">
         <v>3931</v>
@@ -5547,10 +5649,10 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C17" s="25">
         <v>4473</v>
@@ -5592,10 +5694,10 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="25">
         <v>12568</v>
@@ -5633,10 +5735,10 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="25">
         <v>9640</v>
@@ -5678,10 +5780,10 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C20" s="25">
         <v>635</v>
@@ -5717,10 +5819,10 @@
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C21" s="25">
         <v>5057</v>
@@ -5762,10 +5864,10 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C22" s="25">
         <v>956</v>
@@ -5803,10 +5905,10 @@
     </row>
     <row r="23" spans="1:15" ht="70.5" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C23" s="25">
         <v>4976</v>
@@ -5848,10 +5950,10 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C24" s="25">
         <v>5553</v>
@@ -5889,10 +5991,10 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C25" s="25">
         <v>6246</v>
@@ -5934,10 +6036,10 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C26" s="25">
         <v>12293</v>
@@ -5979,10 +6081,10 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C27" s="25">
         <v>1092</v>
@@ -6024,10 +6126,10 @@
     </row>
     <row r="28" spans="1:15" ht="49.5" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -6047,10 +6149,10 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C29" s="25">
         <v>4372</v>
@@ -6092,10 +6194,10 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C30" s="25">
         <v>907</v>
@@ -6133,10 +6235,10 @@
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C31" s="25">
         <v>3972</v>
@@ -6172,10 +6274,10 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -6195,10 +6297,10 @@
     </row>
     <row r="33" spans="1:15" ht="52.5" customHeight="1">
       <c r="A33" s="22" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -6218,10 +6320,10 @@
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C34" s="25">
         <v>20838</v>
@@ -6251,7 +6353,7 @@
         <v>2020</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M34" s="26">
         <v>12</v>
@@ -6263,10 +6365,10 @@
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="22" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C35" s="25">
         <v>936</v>
@@ -6308,10 +6410,10 @@
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C36" s="25">
         <v>14022</v>
@@ -6349,10 +6451,10 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C37" s="25">
         <v>6098</v>
@@ -6390,10 +6492,10 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C38" s="25">
         <v>6006</v>
@@ -6435,10 +6537,10 @@
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C39" s="25">
         <v>10224</v>
@@ -6474,10 +6576,10 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C40" s="25">
         <v>1826</v>
@@ -6519,10 +6621,10 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="22" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C41" s="25">
         <v>4156</v>
@@ -6556,10 +6658,10 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="22" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C42" s="25">
         <v>3323</v>
@@ -6601,10 +6703,10 @@
     </row>
     <row r="43" spans="1:15" ht="55.5" customHeight="1">
       <c r="A43" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -6624,10 +6726,10 @@
     </row>
     <row r="44" spans="1:15" ht="33.75" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C44" s="25">
         <v>37286</v>
@@ -6669,10 +6771,10 @@
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C45" s="25">
         <v>2945</v>
@@ -6714,10 +6816,10 @@
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C46" s="26">
         <v>6406</v>
@@ -6753,10 +6855,10 @@
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -6780,10 +6882,10 @@
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C48" s="29">
         <v>4834</v>
@@ -6819,10 +6921,10 @@
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C49" s="25">
         <v>3473</v>
@@ -6864,10 +6966,10 @@
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C50" s="25">
         <v>5209</v>
@@ -6909,10 +7011,10 @@
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="C51" s="25">
         <v>878</v>
@@ -7002,8 +7104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -7016,10 +7118,10 @@
   <sheetData>
     <row r="1" spans="1:254" ht="57" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>118</v>
@@ -7292,10 +7394,10 @@
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>4408</v>
@@ -7568,10 +7670,10 @@
     </row>
     <row r="3" spans="1:254" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>27157</v>
@@ -7843,10 +7945,10 @@
     </row>
     <row r="4" spans="1:254" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5">
         <v>15646</v>
@@ -8119,33 +8221,33 @@
     </row>
     <row r="5" spans="1:254" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="45">
+        <v>15</v>
+      </c>
+      <c r="C5" s="39">
         <v>41937</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="39">
         <v>10080</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="39">
         <v>8339</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="39">
         <v>5335</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="39">
         <v>3004</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="39">
         <v>1741</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="40">
         <v>566</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="39">
         <v>1175</v>
       </c>
       <c r="K5" s="4"/>
@@ -8395,10 +8497,10 @@
     </row>
     <row r="6" spans="1:254" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>129075</v>
@@ -8671,10 +8773,10 @@
     </row>
     <row r="7" spans="1:254" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>20137</v>
@@ -8947,10 +9049,10 @@
     </row>
     <row r="8" spans="1:254" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>13366</v>
@@ -9209,10 +9311,10 @@
     </row>
     <row r="9" spans="1:254" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>5207</v>
@@ -9475,10 +9577,10 @@
     </row>
     <row r="10" spans="1:254" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>96253</v>
@@ -9751,10 +9853,10 @@
     </row>
     <row r="11" spans="1:254" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -10011,10 +10113,10 @@
     </row>
     <row r="12" spans="1:254" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>4396</v>
@@ -10287,10 +10389,10 @@
     </row>
     <row r="13" spans="1:254" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>8363</v>
@@ -10563,10 +10665,10 @@
     </row>
     <row r="14" spans="1:254" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5">
         <v>8651</v>
@@ -10839,10 +10941,10 @@
     </row>
     <row r="15" spans="1:254" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5">
         <v>40872</v>
@@ -11109,10 +11211,10 @@
     </row>
     <row r="16" spans="1:254" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>26562</v>
@@ -11371,10 +11473,10 @@
     </row>
     <row r="17" spans="1:254" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5">
         <v>9973</v>
@@ -11645,10 +11747,10 @@
     </row>
     <row r="18" spans="1:254" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -11905,10 +12007,10 @@
     </row>
     <row r="19" spans="1:254" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>32488</v>
@@ -12181,10 +12283,10 @@
     </row>
     <row r="20" spans="1:254" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>8044</v>
@@ -12453,10 +12555,10 @@
     </row>
     <row r="21" spans="1:254" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5">
         <v>19453</v>
@@ -12721,10 +12823,10 @@
     </row>
     <row r="22" spans="1:254" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <v>2473</v>
@@ -12983,10 +13085,10 @@
     </row>
     <row r="23" spans="1:254" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5">
         <v>38761</v>
@@ -13251,10 +13353,10 @@
     </row>
     <row r="24" spans="1:254" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5">
         <v>9821</v>
@@ -13526,10 +13628,10 @@
     </row>
     <row r="25" spans="1:254" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5">
         <v>31721</v>
@@ -13802,10 +13904,10 @@
     </row>
     <row r="26" spans="1:254" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5">
         <v>19276</v>
@@ -14078,10 +14180,10 @@
     </row>
     <row r="27" spans="1:254" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C27" s="5">
         <v>2711</v>
@@ -14354,10 +14456,10 @@
     </row>
     <row r="28" spans="1:254" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C28" s="5">
         <v>37104</v>
@@ -14630,10 +14732,10 @@
     </row>
     <row r="29" spans="1:254" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5">
         <v>1695</v>
@@ -14898,10 +15000,10 @@
     </row>
     <row r="30" spans="1:254" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5">
         <v>5302</v>
@@ -15170,10 +15272,10 @@
     </row>
     <row r="31" spans="1:254" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6">
         <v>2578</v>
@@ -15443,10 +15545,10 @@
     </row>
     <row r="32" spans="1:254" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -15703,10 +15805,10 @@
     </row>
     <row r="33" spans="1:254" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -15963,10 +16065,10 @@
     </row>
     <row r="34" spans="1:254" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5">
         <v>13740</v>
@@ -16239,10 +16341,10 @@
     </row>
     <row r="35" spans="1:254" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5">
         <v>49312</v>
@@ -16509,10 +16611,10 @@
     </row>
     <row r="36" spans="1:254" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5">
         <v>48954</v>
@@ -16781,10 +16883,10 @@
     </row>
     <row r="37" spans="1:254" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5">
         <v>27180</v>
@@ -17049,10 +17151,10 @@
     </row>
     <row r="38" spans="1:254" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5">
         <v>15478</v>
@@ -17325,10 +17427,10 @@
     </row>
     <row r="39" spans="1:254" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C39" s="5">
         <v>48353</v>
@@ -17595,10 +17697,10 @@
     </row>
     <row r="40" spans="1:254" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C40" s="5">
         <v>2108</v>
@@ -17871,10 +17973,10 @@
     </row>
     <row r="41" spans="1:254" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C41" s="5">
         <v>18958</v>
@@ -18139,10 +18241,10 @@
     </row>
     <row r="42" spans="1:254" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5">
         <v>4026</v>
@@ -18415,10 +18517,10 @@
     </row>
     <row r="43" spans="1:254" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C43" s="5">
         <v>22339</v>
@@ -18691,10 +18793,10 @@
     </row>
     <row r="44" spans="1:254" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5">
         <v>145019</v>
@@ -18963,10 +19065,10 @@
     </row>
     <row r="45" spans="1:254" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C45" s="5">
         <v>6695</v>
@@ -19231,10 +19333,10 @@
     </row>
     <row r="46" spans="1:254" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C46" s="5">
         <v>37304</v>
@@ -19507,10 +19609,10 @@
     </row>
     <row r="47" spans="1:254" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C47" s="6">
         <v>1296</v>
@@ -19777,10 +19879,10 @@
     </row>
     <row r="48" spans="1:254" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5">
         <v>20325</v>
@@ -20047,10 +20149,10 @@
     </row>
     <row r="49" spans="1:254" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C49" s="5">
         <v>23865</v>
@@ -20323,10 +20425,10 @@
     </row>
     <row r="50" spans="1:254" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C50" s="5">
         <v>6776</v>
@@ -20593,10 +20695,10 @@
     </row>
     <row r="51" spans="1:254" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C51" s="5">
         <v>2454</v>
@@ -21904,8 +22006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -21918,10 +22020,10 @@
   <sheetData>
     <row r="1" spans="1:254" ht="57" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>118</v>
@@ -22194,10 +22296,10 @@
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>4599</v>
@@ -22470,10 +22572,10 @@
     </row>
     <row r="3" spans="1:254" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>27922</v>
@@ -22745,10 +22847,10 @@
     </row>
     <row r="4" spans="1:254" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5">
         <v>15680</v>
@@ -23021,33 +23123,33 @@
     </row>
     <row r="5" spans="1:254" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="45">
+        <v>15</v>
+      </c>
+      <c r="C5" s="39">
         <v>42441</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="39">
         <v>10072</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="39">
         <v>8265</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="39">
         <v>5329</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="39">
         <v>2936</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="39">
         <v>1807</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="40">
         <v>545</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="39">
         <v>1262</v>
       </c>
       <c r="K5" s="4"/>
@@ -23297,10 +23399,10 @@
     </row>
     <row r="6" spans="1:254" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>125195</v>
@@ -23573,10 +23675,10 @@
     </row>
     <row r="7" spans="1:254" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>19951</v>
@@ -23849,10 +23951,10 @@
     </row>
     <row r="8" spans="1:254" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>13100</v>
@@ -24111,10 +24213,10 @@
     </row>
     <row r="9" spans="1:254" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>4436</v>
@@ -24377,10 +24479,10 @@
     </row>
     <row r="10" spans="1:254" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>95626</v>
@@ -24653,10 +24755,10 @@
     </row>
     <row r="11" spans="1:254" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -24913,10 +25015,10 @@
     </row>
     <row r="12" spans="1:254" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>4337</v>
@@ -25189,10 +25291,10 @@
     </row>
     <row r="13" spans="1:254" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>8431</v>
@@ -25465,10 +25567,10 @@
     </row>
     <row r="14" spans="1:254" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5">
         <v>9038</v>
@@ -25741,10 +25843,10 @@
     </row>
     <row r="15" spans="1:254" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5">
         <v>39306</v>
@@ -26011,10 +26113,10 @@
     </row>
     <row r="16" spans="1:254" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>26952</v>
@@ -26273,10 +26375,10 @@
     </row>
     <row r="17" spans="1:254" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5">
         <v>10044</v>
@@ -26547,10 +26649,10 @@
     </row>
     <row r="18" spans="1:254" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -26807,10 +26909,10 @@
     </row>
     <row r="19" spans="1:254" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>31519</v>
@@ -27083,10 +27185,10 @@
     </row>
     <row r="20" spans="1:254" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>7602</v>
@@ -27355,10 +27457,10 @@
     </row>
     <row r="21" spans="1:254" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5">
         <v>19014</v>
@@ -27623,10 +27725,10 @@
     </row>
     <row r="22" spans="1:254" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <v>2265</v>
@@ -27885,10 +27987,10 @@
     </row>
     <row r="23" spans="1:254" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5">
         <v>38053</v>
@@ -28153,10 +28255,10 @@
     </row>
     <row r="24" spans="1:254" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5">
         <v>9577</v>
@@ -28428,10 +28530,10 @@
     </row>
     <row r="25" spans="1:254" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5">
         <v>28174</v>
@@ -28704,10 +28806,10 @@
     </row>
     <row r="26" spans="1:254" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5">
         <v>19426</v>
@@ -28980,10 +29082,10 @@
     </row>
     <row r="27" spans="1:254" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C27" s="5">
         <v>2784</v>
@@ -29256,10 +29358,10 @@
     </row>
     <row r="28" spans="1:254" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C28" s="5">
         <v>36053</v>
@@ -29532,10 +29634,10 @@
     </row>
     <row r="29" spans="1:254" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5">
         <v>1794</v>
@@ -29800,10 +29902,10 @@
     </row>
     <row r="30" spans="1:254" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5">
         <v>5487</v>
@@ -30072,10 +30174,10 @@
     </row>
     <row r="31" spans="1:254" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6">
         <v>2515</v>
@@ -30346,10 +30448,10 @@
     </row>
     <row r="32" spans="1:254" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -30606,10 +30708,10 @@
     </row>
     <row r="33" spans="1:254" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -30866,10 +30968,10 @@
     </row>
     <row r="34" spans="1:254" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5">
         <v>12922</v>
@@ -31142,10 +31244,10 @@
     </row>
     <row r="35" spans="1:254" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5">
         <v>46331</v>
@@ -31412,10 +31514,10 @@
     </row>
     <row r="36" spans="1:254" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5">
         <v>48697</v>
@@ -31684,10 +31786,10 @@
     </row>
     <row r="37" spans="1:254" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5">
         <v>26102</v>
@@ -31952,10 +32054,10 @@
     </row>
     <row r="38" spans="1:254" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5">
         <v>15286</v>
@@ -32228,10 +32330,10 @@
     </row>
     <row r="39" spans="1:254" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C39" s="5">
         <v>45875</v>
@@ -32498,10 +32600,10 @@
     </row>
     <row r="40" spans="1:254" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C40" s="5">
         <v>1957</v>
@@ -32774,10 +32876,10 @@
     </row>
     <row r="41" spans="1:254" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C41" s="5">
         <v>18848</v>
@@ -33042,10 +33144,10 @@
     </row>
     <row r="42" spans="1:254" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5">
         <v>3858</v>
@@ -33318,10 +33420,10 @@
     </row>
     <row r="43" spans="1:254" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -33578,10 +33680,10 @@
     </row>
     <row r="44" spans="1:254" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5">
         <v>142169</v>
@@ -33850,10 +33952,10 @@
     </row>
     <row r="45" spans="1:254" ht="15" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C45" s="7">
         <v>6739</v>
@@ -34118,10 +34220,10 @@
     </row>
     <row r="46" spans="1:254" ht="15" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C46" s="8">
         <v>36930</v>
@@ -34394,10 +34496,10 @@
     </row>
     <row r="47" spans="1:254" ht="15" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C47" s="12">
         <v>1315</v>
@@ -34664,10 +34766,10 @@
     </row>
     <row r="48" spans="1:254" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5">
         <v>19806</v>
@@ -34934,10 +35036,10 @@
     </row>
     <row r="49" spans="1:254" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C49" s="5">
         <v>23778</v>
@@ -35210,10 +35312,10 @@
     </row>
     <row r="50" spans="1:254" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C50" s="5">
         <v>6800</v>
@@ -35480,10 +35582,10 @@
     </row>
     <row r="51" spans="1:254" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C51" s="5">
         <v>2543</v>
@@ -36791,1587 +36893,1587 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IT52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="56" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" style="56" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="56" customWidth="1"/>
-    <col min="12" max="254" width="8.85546875" style="56" customWidth="1"/>
-    <col min="255" max="16384" width="8.85546875" style="57"/>
+    <col min="1" max="1" width="11.28515625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="50" customWidth="1"/>
+    <col min="3" max="10" width="10.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="50" customWidth="1"/>
+    <col min="12" max="254" width="8.85546875" style="50" customWidth="1"/>
+    <col min="255" max="16384" width="8.85546875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="57" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="54"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50" t="s">
+      <c r="A2" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="54"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="A3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="45">
         <v>4618</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="45">
         <v>1532</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="45">
         <v>1280</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="45">
         <v>807</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="45">
         <v>473</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="45">
         <v>252</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="45">
         <v>159</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="45">
         <v>94</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="54"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="52">
+      <c r="A4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="46">
         <v>37731</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="46">
         <v>8838</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="46">
         <v>7897</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="46">
         <v>5861</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="46">
         <v>2036</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="47">
         <v>941</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="47">
         <v>499</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="47">
         <v>442</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="51">
+      <c r="A5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="45">
         <v>13840</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="45">
         <v>6242</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="45">
         <v>2252</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="45">
         <v>1884</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="45">
         <v>368</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="45">
         <v>3990</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="45">
         <v>3081</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="45">
         <v>909</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="54"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="51">
+      <c r="A6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="45">
         <v>95318</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="45">
         <v>21570</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="45">
         <v>5570</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="45">
         <v>4517</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="45">
         <v>1053</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="45">
         <v>16000</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="45">
         <v>15929</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="45">
         <v>71</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="A7" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="45">
         <v>17441</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="45">
         <v>3270</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="45">
         <v>64</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="45">
         <v>45</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="45">
         <v>19</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="45">
         <v>3206</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="45">
         <v>2327</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="45">
         <v>879</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="A8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="45">
         <v>9111</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="50" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="51">
+      <c r="A9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="45">
         <v>3894</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="45">
         <v>348</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="50" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="51">
+      <c r="A10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="45">
         <v>79526</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="45">
         <v>11274</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="45">
         <v>10621</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="45">
         <v>6794</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="45">
         <v>3857</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="45">
         <v>653</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="45">
         <v>291</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="45">
         <v>362</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="51">
+      <c r="A11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="45">
         <v>47709</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="45">
         <v>9295</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="45">
         <v>4941</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51">
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45">
         <v>4354</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="45">
         <v>2787</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="45">
         <v>1567</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="54"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="51">
+      <c r="A12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="45">
         <v>3334</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="45">
         <v>1163</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="45">
         <v>396</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="45">
         <v>193</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="45">
         <v>203</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="45">
         <v>767</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="45">
         <v>493</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="45">
         <v>374</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="54"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="51">
+      <c r="A13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="45">
         <v>8025</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="45">
         <v>3924</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="45">
         <v>2730</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="45">
         <v>2181</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="45">
         <v>549</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="45">
         <v>1194</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="45">
         <v>1023</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="45">
         <v>171</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="54"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="51">
+      <c r="A14" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="45">
         <v>29224</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="45">
         <v>4033</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51">
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45">
         <v>4033</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="45">
         <v>1536</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="45">
         <v>2497</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="54" t="s">
+      <c r="A15" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="51">
+      <c r="A16" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="45">
         <v>7528</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="45">
         <v>2307</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="45">
         <v>1477</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="45">
         <v>1477</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="45">
         <v>0</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="45">
         <v>830</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="45">
         <v>37</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="45">
         <v>793</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="51">
+      <c r="A17" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="45">
         <v>8869</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="45">
         <v>2590</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="45">
         <v>1807</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="45">
         <v>790</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="45">
         <v>1001</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="45">
         <v>783</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="45">
         <v>548</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="45">
         <v>235</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="54"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="54" t="s">
+      <c r="A18" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="54"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="51">
+      <c r="A19" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="45">
         <v>27010</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="45">
         <v>7754</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="45">
         <v>2691</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="45">
         <v>844</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="45">
         <v>1847</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="45">
         <v>5063</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="45">
         <v>4284</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="45">
         <v>779</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="54"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="51">
+      <c r="A20" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="45">
         <v>1715</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="50" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="54"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="51">
+      <c r="A21" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="45">
         <v>18607</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="45">
         <v>1530</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="45">
         <v>820</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51">
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45">
         <v>710</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="50" t="s">
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="54"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="51">
+      <c r="A22" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="45">
         <v>6282</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="45">
         <v>159</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="45">
         <v>9</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45">
         <v>150</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="45">
         <v>72</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="45">
         <v>78</v>
       </c>
-      <c r="K22" s="54" t="s">
+      <c r="K22" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="A23" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="51">
+      <c r="A23" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="45">
         <v>33617</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="45">
         <v>957</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45">
         <v>957</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51">
+      <c r="I23" s="45"/>
+      <c r="J23" s="45">
         <v>957</v>
       </c>
-      <c r="K23" s="54" t="s">
+      <c r="K23" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="54"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="51">
+      <c r="A24" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="45">
         <v>8330</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="45">
         <v>2166</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="45">
         <v>973</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51">
+      <c r="F24" s="45"/>
+      <c r="G24" s="45">
         <v>973</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="45">
         <v>1193</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="45">
         <v>533</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="45">
         <v>660</v>
       </c>
-      <c r="K24" s="54" t="s">
+      <c r="K24" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="54"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="51">
+      <c r="A25" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="45">
         <v>17586</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="45">
         <v>5127</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="45">
         <v>3357</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="45">
         <v>1518</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="45">
         <v>1839</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="45">
         <v>1770</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="45">
         <v>532</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="45">
         <v>1238</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L25" s="54"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="51">
+      <c r="A26" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="45">
         <v>23062</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="45">
         <v>11904</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="45">
         <v>7469</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="45">
         <v>4850</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="45">
         <v>2619</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="45">
         <v>4435</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="45">
         <v>2097</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="45">
         <v>2338</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L26" s="54"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="51">
+      <c r="A27" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="45">
         <v>2401</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="45">
         <v>706</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="45">
         <v>457</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="45">
         <v>159</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="45">
         <v>298</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="45">
         <v>249</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="45">
         <v>37</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="45">
         <v>212</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="54"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="54" t="s">
+      <c r="A28" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="54"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="A29" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="51">
+      <c r="A29" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="45">
         <v>11422</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="45">
         <v>2333</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="45">
         <v>1499</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="45">
         <v>216</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="45">
         <v>1283</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="45">
         <v>834</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="45">
         <v>97</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="45">
         <v>737</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L29" s="54"/>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="55">
+      <c r="A30" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="49">
         <v>2155</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="45">
         <v>43</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="45">
         <v>2</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51">
+      <c r="F30" s="45"/>
+      <c r="G30" s="45">
         <v>2</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="45">
         <v>41</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51">
+      <c r="I30" s="45"/>
+      <c r="J30" s="45">
         <v>41</v>
       </c>
-      <c r="K30" s="50" t="s">
+      <c r="K30" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="54"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="54" t="s">
+      <c r="A31" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="54"/>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="54" t="s">
+      <c r="A32" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L32" s="54"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="54" t="s">
+      <c r="A33" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L33" s="54"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="51">
+      <c r="A34" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="45">
         <v>30058</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="45">
         <v>6974</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="45">
         <v>3971</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="45">
         <v>3771</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="45">
         <v>200</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="45">
         <v>3003</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="45">
         <v>3000</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="45">
         <v>3</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L34" s="54"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="51">
+      <c r="A35" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="45">
         <v>1401</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="45">
         <v>397</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="45">
         <v>267</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51">
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45">
         <v>130</v>
       </c>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="50" t="s">
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L35" s="54"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="A36" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="51">
+      <c r="A36" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="45">
         <v>43665</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="45">
         <v>3662</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="45">
         <v>2146</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51">
+      <c r="F36" s="45"/>
+      <c r="G36" s="45">
         <v>2146</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="45">
         <v>1516</v>
       </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51">
+      <c r="I36" s="45"/>
+      <c r="J36" s="45">
         <v>1516</v>
       </c>
-      <c r="K36" s="54" t="s">
+      <c r="K36" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="L36" s="54"/>
+      <c r="L36" s="48"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="51">
+      <c r="A37" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="45">
         <v>21737</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45">
         <v>3076</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="45">
         <v>1935</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="45">
         <v>1141</v>
       </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="50" t="s">
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="54"/>
+      <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="51">
+      <c r="A38" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="45">
         <v>13102</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="45">
         <v>1389</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="45">
         <v>1352</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="45">
         <v>765</v>
       </c>
-      <c r="G38" s="51">
+      <c r="G38" s="45">
         <v>587</v>
       </c>
-      <c r="H38" s="51">
+      <c r="H38" s="45">
         <v>37</v>
       </c>
-      <c r="I38" s="51">
+      <c r="I38" s="45">
         <v>8</v>
       </c>
-      <c r="J38" s="51">
+      <c r="J38" s="45">
         <v>29</v>
       </c>
-      <c r="K38" s="50" t="s">
+      <c r="K38" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="54"/>
+      <c r="L38" s="48"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="51">
+      <c r="A39" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="45">
         <v>39493</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="45">
         <v>5739</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45">
         <v>5739</v>
       </c>
-      <c r="I39" s="51">
+      <c r="I39" s="45">
         <v>3468</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="45">
         <v>2271</v>
       </c>
-      <c r="K39" s="50" t="s">
+      <c r="K39" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L39" s="54"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" spans="1:12" ht="16.7" customHeight="1">
-      <c r="A40" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="51">
+      <c r="A40" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="45">
         <v>1491</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="45">
         <v>350</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="45">
         <v>277</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="45">
         <v>237</v>
       </c>
-      <c r="G40" s="51">
+      <c r="G40" s="45">
         <v>37</v>
       </c>
-      <c r="H40" s="51">
+      <c r="H40" s="45">
         <v>73</v>
       </c>
-      <c r="I40" s="51">
+      <c r="I40" s="45">
         <v>33</v>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="45">
         <v>18</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L40" s="54"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="A41" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="51">
+      <c r="A41" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="45">
         <v>15726</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="45">
         <v>2417</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="45">
         <v>1249</v>
       </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51">
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45">
         <v>1168</v>
       </c>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="50" t="s">
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L41" s="54"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A42" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="51">
+      <c r="A42" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="45">
         <v>3249</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="45">
         <v>1410</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="45">
         <v>535</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="45">
         <v>150</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="45">
         <v>385</v>
       </c>
-      <c r="H42" s="51">
+      <c r="H42" s="45">
         <v>875</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="45">
         <v>170</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="45">
         <v>705</v>
       </c>
-      <c r="K42" s="50" t="s">
+      <c r="K42" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L42" s="54"/>
+      <c r="L42" s="48"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
-      <c r="A43" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="54" t="s">
+      <c r="A43" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L43" s="54"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
-      <c r="A44" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="51">
+      <c r="A44" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="45">
         <v>121119</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="45">
         <v>25822</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="45">
         <v>19350</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51">
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45">
         <v>6472</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="45">
         <v>4878</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="45">
         <v>1594</v>
       </c>
-      <c r="K44" s="50" t="s">
+      <c r="K44" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L44" s="54"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="A45" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="51">
+      <c r="A45" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="45">
         <v>5485</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="45">
         <v>2661</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="45">
         <v>997</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51">
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45">
         <v>1664</v>
       </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="50" t="s">
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L45" s="54"/>
+      <c r="L45" s="48"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="55">
+      <c r="A46" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="49">
         <v>1066</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="45">
         <f>E46+H46</f>
         <v>250</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="45">
         <v>92</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="51">
+      <c r="F46" s="45"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="45">
         <f>27+131</f>
         <v>158</v>
       </c>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="50" t="s">
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="54"/>
+      <c r="L46" s="48"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="A47" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="51">
+      <c r="A47" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="45">
         <v>33788</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="50" t="s">
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L47" s="54"/>
+      <c r="L47" s="48"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="51">
+      <c r="A48" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="45">
         <v>15726</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="45">
         <v>5351</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51">
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45">
         <v>5351</v>
       </c>
-      <c r="I48" s="51">
+      <c r="I48" s="45">
         <v>3693</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="45">
         <v>1658</v>
       </c>
-      <c r="K48" s="50" t="s">
+      <c r="K48" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="51"/>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1">
-      <c r="A49" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="51">
+      <c r="A49" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="45">
         <v>6044</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="45">
         <v>676</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="45">
         <v>676</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="45">
         <v>80</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="45">
         <v>596</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="50" t="s">
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L49" s="54"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="51">
+      <c r="A50" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="45">
         <v>20121</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="45">
         <v>9933</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="45">
         <v>3643</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="45">
         <v>2214</v>
       </c>
-      <c r="G50" s="51">
+      <c r="G50" s="45">
         <v>1429</v>
       </c>
-      <c r="H50" s="51">
+      <c r="H50" s="45">
         <v>6290</v>
       </c>
-      <c r="I50" s="51">
+      <c r="I50" s="45">
         <v>3372</v>
       </c>
-      <c r="J50" s="51">
+      <c r="J50" s="45">
         <v>2918</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L50" s="54"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="55">
+      <c r="C51" s="49">
         <v>2364</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="49">
         <v>681</v>
       </c>
-      <c r="E51" s="55">
+      <c r="E51" s="49">
         <v>482</v>
       </c>
-      <c r="F51" s="55">
+      <c r="F51" s="49">
         <v>24</v>
       </c>
-      <c r="G51" s="55">
+      <c r="G51" s="49">
         <v>458</v>
       </c>
-      <c r="H51" s="55">
+      <c r="H51" s="49">
         <v>199</v>
       </c>
-      <c r="I51" s="55">
+      <c r="I51" s="49">
         <v>72</v>
       </c>
-      <c r="J51" s="55">
+      <c r="J51" s="49">
         <v>127</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L51" s="54"/>
+      <c r="L51" s="48"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:IT65">
@@ -38385,604 +38487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBA7079-3894-49AA-98D1-2B5E43F1BAE6}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="44" customFormat="1">
-      <c r="A23" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="B53" s="41"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -38991,7 +38496,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085A98439AFA81E498F77D25C786519F4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2eee30f09807eeac4a01227db7fe7da3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="761c6e68-1cb6-4689-a9f8-1fc6e959a784" xmlns:ns3="92180e4e-06c3-4953-9d7f-e8282e53295e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12701c335ef03a3ee46b176a305484f3" ns2:_="" ns3:_="">
     <xsd:import namespace="761c6e68-1cb6-4689-a9f8-1fc6e959a784"/>
@@ -39202,14 +38707,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61908B07-54D0-41B3-8455-6EB578778097}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61908B07-54D0-41B3-8455-6EB578778097}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}"/>
 </file>
--- a/data/Data for web team 2021 v7.xlsx
+++ b/data/Data for web team 2021 v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg.sharepoint.com/sites/Team-JC-Research/Shared Documents/50 State Revocations Project/50 State Survey (2021)/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroberts\OneDrive - The Council of State Governments\Desktop\csgjc\repos\cc_survey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1362" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DFB932-5334-4F7F-8C1A-AACFA7D91A6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9CC764-6C3A-4148-92BD-36773E4FDA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admissions 2018" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -423,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1807,7 +1806,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="24" customWidth="1"/>
@@ -1817,7 +1816,7 @@
     <col min="253" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" customHeight="1">
+    <row r="1" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1881,7 @@
       </c>
       <c r="L2" s="38"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1914,7 @@
       </c>
       <c r="L3" s="38"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
@@ -1948,7 +1947,7 @@
       </c>
       <c r="L4" s="38"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
@@ -1981,7 +1980,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -2014,7 +2013,7 @@
       </c>
       <c r="L6" s="38"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2046,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
@@ -2076,7 +2075,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
@@ -2095,7 +2094,7 @@
       <c r="J9" s="27"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
@@ -2128,7 +2127,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2156,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
@@ -2190,7 +2189,7 @@
       </c>
       <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
@@ -2223,7 +2222,7 @@
       </c>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
@@ -2250,7 +2249,7 @@
       </c>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>36</v>
       </c>
@@ -2283,7 +2282,7 @@
       </c>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +2315,7 @@
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>40</v>
       </c>
@@ -2349,7 +2348,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
@@ -2378,7 +2377,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
@@ -2411,7 +2410,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>46</v>
       </c>
@@ -2438,7 +2437,7 @@
       <c r="J20" s="27"/>
       <c r="L20" s="38"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>48</v>
       </c>
@@ -2471,7 +2470,7 @@
       </c>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
@@ -2500,7 +2499,7 @@
       </c>
       <c r="L22" s="38"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>52</v>
       </c>
@@ -2533,7 +2532,7 @@
       </c>
       <c r="L23" s="38"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>54</v>
       </c>
@@ -2562,7 +2561,7 @@
       </c>
       <c r="L24" s="38"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
@@ -2595,7 +2594,7 @@
       </c>
       <c r="L25" s="38"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>58</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>60</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>62</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>64</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>66</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>68</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>70</v>
       </c>
@@ -2789,7 +2788,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>72</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>74</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>76</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>78</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>80</v>
       </c>
@@ -2935,7 +2934,7 @@
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>82</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>84</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>86</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>88</v>
       </c>
@@ -3049,7 +3048,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>90</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>92</v>
       </c>
@@ -3103,7 +3102,7 @@
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>94</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>96</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>98</v>
       </c>
@@ -3191,7 +3190,7 @@
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>100</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>102</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>104</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>108</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -3377,7 +3376,7 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="24" customWidth="1"/>
@@ -3386,7 +3385,7 @@
     <col min="254" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57" customHeight="1">
+    <row r="1" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3418,7 @@
       </c>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
@@ -3452,7 +3451,7 @@
       </c>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
@@ -3485,7 +3484,7 @@
       </c>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
@@ -3518,7 +3517,7 @@
       </c>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
@@ -3551,7 +3550,7 @@
       </c>
       <c r="K5" s="25"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -3584,7 +3583,7 @@
       </c>
       <c r="K6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3616,7 @@
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
@@ -3646,7 +3645,7 @@
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
@@ -3665,7 +3664,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
@@ -3698,7 +3697,7 @@
       </c>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
@@ -3727,7 +3726,7 @@
       </c>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3759,7 @@
       </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
@@ -3793,7 +3792,7 @@
       </c>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
@@ -3820,7 +3819,7 @@
       </c>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>36</v>
       </c>
@@ -3853,7 +3852,7 @@
       </c>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +3885,7 @@
       </c>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>40</v>
       </c>
@@ -3919,7 +3918,7 @@
       </c>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
@@ -3948,7 +3947,7 @@
       </c>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
@@ -3981,7 +3980,7 @@
       </c>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>46</v>
       </c>
@@ -4008,7 +4007,7 @@
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>48</v>
       </c>
@@ -4041,7 +4040,7 @@
       </c>
       <c r="K21" s="25"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
@@ -4070,7 +4069,7 @@
       </c>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>52</v>
       </c>
@@ -4103,7 +4102,7 @@
       </c>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>54</v>
       </c>
@@ -4132,7 +4131,7 @@
       </c>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
@@ -4165,7 +4164,7 @@
       </c>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>58</v>
       </c>
@@ -4198,7 +4197,7 @@
       </c>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>60</v>
       </c>
@@ -4231,7 +4230,7 @@
       </c>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>62</v>
       </c>
@@ -4260,7 +4259,7 @@
       </c>
       <c r="K28" s="25"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>64</v>
       </c>
@@ -4293,7 +4292,7 @@
       </c>
       <c r="K29" s="25"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>66</v>
       </c>
@@ -4322,7 +4321,7 @@
       </c>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>68</v>
       </c>
@@ -4349,7 +4348,7 @@
       </c>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>70</v>
       </c>
@@ -4366,7 +4365,7 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>72</v>
       </c>
@@ -4393,7 +4392,7 @@
       </c>
       <c r="K33" s="25"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>74</v>
       </c>
@@ -4426,7 +4425,7 @@
       </c>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>76</v>
       </c>
@@ -4459,7 +4458,7 @@
       </c>
       <c r="K35" s="25"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>78</v>
       </c>
@@ -4488,7 +4487,7 @@
       </c>
       <c r="K36" s="25"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>80</v>
       </c>
@@ -4517,7 +4516,7 @@
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>82</v>
       </c>
@@ -4550,7 +4549,7 @@
       </c>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>84</v>
       </c>
@@ -4577,7 +4576,7 @@
       </c>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>86</v>
       </c>
@@ -4610,7 +4609,7 @@
       </c>
       <c r="K40" s="25"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>88</v>
       </c>
@@ -4635,7 +4634,7 @@
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>90</v>
       </c>
@@ -4668,7 +4667,7 @@
       </c>
       <c r="K42" s="25"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>92</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>94</v>
       </c>
@@ -4724,7 +4723,7 @@
       </c>
       <c r="K44" s="25"/>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>96</v>
       </c>
@@ -4757,7 +4756,7 @@
       </c>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>98</v>
       </c>
@@ -4782,7 +4781,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>100</v>
       </c>
@@ -4807,7 +4806,7 @@
       </c>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>102</v>
       </c>
@@ -4834,7 +4833,7 @@
       </c>
       <c r="K48" s="25"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>104</v>
       </c>
@@ -4867,7 +4866,7 @@
       </c>
       <c r="K49" s="25"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
@@ -4900,7 +4899,7 @@
       </c>
       <c r="K50" s="25"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>108</v>
       </c>
@@ -4933,7 +4932,7 @@
       </c>
       <c r="K51" s="25"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -4962,11 +4961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IS53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="24" customWidth="1"/>
@@ -4977,7 +4976,7 @@
     <col min="254" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63.75" customHeight="1">
+    <row r="1" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5022,7 +5021,7 @@
       </c>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
@@ -5067,7 +5066,7 @@
       </c>
       <c r="O2" s="27"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
@@ -5112,7 +5111,7 @@
       </c>
       <c r="O3" s="27"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
@@ -5157,7 +5156,7 @@
       </c>
       <c r="O4" s="27"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
@@ -5202,7 +5201,7 @@
       </c>
       <c r="O5" s="27"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -5247,7 +5246,7 @@
       </c>
       <c r="O6" s="27"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -5292,7 +5291,7 @@
       </c>
       <c r="O7" s="27"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
@@ -5333,7 +5332,7 @@
       </c>
       <c r="O8" s="27"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
@@ -5364,7 +5363,7 @@
       </c>
       <c r="O9" s="27"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
@@ -5409,7 +5408,7 @@
       </c>
       <c r="O10" s="27"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
@@ -5450,7 +5449,7 @@
       </c>
       <c r="O11" s="27"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
@@ -5495,7 +5494,7 @@
       </c>
       <c r="O12" s="27"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
@@ -5540,7 +5539,7 @@
       </c>
       <c r="O13" s="27"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
@@ -5579,7 +5578,7 @@
       </c>
       <c r="O14" s="27"/>
     </row>
-    <row r="15" spans="1:15" ht="76.5" customHeight="1">
+    <row r="15" spans="1:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>36</v>
       </c>
@@ -5602,7 +5601,7 @@
       </c>
       <c r="O15" s="27"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
@@ -5647,7 +5646,7 @@
       </c>
       <c r="O16" s="27"/>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>40</v>
       </c>
@@ -5692,7 +5691,7 @@
       </c>
       <c r="O17" s="27"/>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
@@ -5733,7 +5732,7 @@
       </c>
       <c r="O18" s="27"/>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
@@ -5778,7 +5777,7 @@
       </c>
       <c r="O19" s="27"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>46</v>
       </c>
@@ -5817,7 +5816,7 @@
       </c>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>48</v>
       </c>
@@ -5862,7 +5861,7 @@
       </c>
       <c r="O21" s="27"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
@@ -5903,7 +5902,7 @@
       </c>
       <c r="O22" s="27"/>
     </row>
-    <row r="23" spans="1:15" ht="70.5" customHeight="1">
+    <row r="23" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>52</v>
       </c>
@@ -5948,7 +5947,7 @@
       </c>
       <c r="O23" s="27"/>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>54</v>
       </c>
@@ -5989,7 +5988,7 @@
       </c>
       <c r="O24" s="27"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
@@ -6034,7 +6033,7 @@
       </c>
       <c r="O25" s="27"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>58</v>
       </c>
@@ -6079,7 +6078,7 @@
       </c>
       <c r="O26" s="27"/>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>60</v>
       </c>
@@ -6124,7 +6123,7 @@
       </c>
       <c r="O27" s="27"/>
     </row>
-    <row r="28" spans="1:15" ht="49.5" customHeight="1">
+    <row r="28" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>62</v>
       </c>
@@ -6147,7 +6146,7 @@
       </c>
       <c r="O28" s="27"/>
     </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>64</v>
       </c>
@@ -6192,7 +6191,7 @@
       </c>
       <c r="O29" s="27"/>
     </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>66</v>
       </c>
@@ -6233,7 +6232,7 @@
       </c>
       <c r="O30" s="27"/>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>68</v>
       </c>
@@ -6272,7 +6271,7 @@
       </c>
       <c r="O31" s="27"/>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>70</v>
       </c>
@@ -6295,7 +6294,7 @@
       </c>
       <c r="O32" s="27"/>
     </row>
-    <row r="33" spans="1:15" ht="52.5" customHeight="1">
+    <row r="33" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>72</v>
       </c>
@@ -6318,7 +6317,7 @@
       </c>
       <c r="O33" s="27"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>74</v>
       </c>
@@ -6363,7 +6362,7 @@
       </c>
       <c r="O34" s="27"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>76</v>
       </c>
@@ -6408,7 +6407,7 @@
       </c>
       <c r="O35" s="27"/>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>78</v>
       </c>
@@ -6449,7 +6448,7 @@
       </c>
       <c r="O36" s="27"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>80</v>
       </c>
@@ -6490,7 +6489,7 @@
       </c>
       <c r="O37" s="27"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>82</v>
       </c>
@@ -6535,7 +6534,7 @@
       </c>
       <c r="O38" s="27"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>84</v>
       </c>
@@ -6574,7 +6573,7 @@
       </c>
       <c r="O39" s="27"/>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>86</v>
       </c>
@@ -6619,7 +6618,7 @@
       </c>
       <c r="O40" s="27"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>88</v>
       </c>
@@ -6656,7 +6655,7 @@
       </c>
       <c r="O41" s="27"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>90</v>
       </c>
@@ -6701,7 +6700,7 @@
       </c>
       <c r="O42" s="27"/>
     </row>
-    <row r="43" spans="1:15" ht="55.5" customHeight="1">
+    <row r="43" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>92</v>
       </c>
@@ -6724,7 +6723,7 @@
       </c>
       <c r="O43" s="27"/>
     </row>
-    <row r="44" spans="1:15" ht="33.75" customHeight="1">
+    <row r="44" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>94</v>
       </c>
@@ -6769,7 +6768,7 @@
       </c>
       <c r="O44" s="27"/>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>96</v>
       </c>
@@ -6814,7 +6813,7 @@
       </c>
       <c r="O45" s="27"/>
     </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1">
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>98</v>
       </c>
@@ -6853,7 +6852,7 @@
       </c>
       <c r="O46" s="27"/>
     </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1">
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>100</v>
       </c>
@@ -6880,7 +6879,7 @@
       </c>
       <c r="O47" s="27"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>102</v>
       </c>
@@ -6919,7 +6918,7 @@
       </c>
       <c r="O48" s="27"/>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>104</v>
       </c>
@@ -6964,7 +6963,7 @@
       </c>
       <c r="O49" s="27"/>
     </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1">
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
@@ -7009,7 +7008,7 @@
       </c>
       <c r="O50" s="27"/>
     </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1">
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>108</v>
       </c>
@@ -7054,7 +7053,7 @@
       </c>
       <c r="O51" s="27"/>
     </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1">
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -7071,7 +7070,7 @@
       <c r="N52" s="36"/>
       <c r="O52" s="27"/>
     </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1">
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -7104,11 +7103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="15" customWidth="1"/>
@@ -7116,7 +7115,7 @@
     <col min="11" max="254" width="8.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="57" customHeight="1">
+    <row r="1" spans="1:254" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7392,7 +7391,7 @@
       <c r="IS1" s="19"/>
       <c r="IT1" s="19"/>
     </row>
-    <row r="2" spans="1:254" ht="15" customHeight="1">
+    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7668,7 +7667,7 @@
       <c r="IS2" s="19"/>
       <c r="IT2" s="19"/>
     </row>
-    <row r="3" spans="1:254" ht="15" customHeight="1">
+    <row r="3" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -7943,7 +7942,7 @@
       <c r="IS3" s="19"/>
       <c r="IT3" s="19"/>
     </row>
-    <row r="4" spans="1:254" ht="15" customHeight="1">
+    <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -8219,7 +8218,7 @@
       <c r="IS4" s="19"/>
       <c r="IT4" s="19"/>
     </row>
-    <row r="5" spans="1:254" ht="15" customHeight="1">
+    <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -8495,7 +8494,7 @@
       <c r="IS5" s="19"/>
       <c r="IT5" s="19"/>
     </row>
-    <row r="6" spans="1:254" ht="15" customHeight="1">
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -8771,7 +8770,7 @@
       <c r="IS6" s="19"/>
       <c r="IT6" s="19"/>
     </row>
-    <row r="7" spans="1:254" ht="15" customHeight="1">
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -9047,7 +9046,7 @@
       <c r="IS7" s="19"/>
       <c r="IT7" s="19"/>
     </row>
-    <row r="8" spans="1:254" ht="15" customHeight="1">
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -9309,7 +9308,7 @@
       <c r="IS8" s="19"/>
       <c r="IT8" s="19"/>
     </row>
-    <row r="9" spans="1:254" ht="15" customHeight="1">
+    <row r="9" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -9575,7 +9574,7 @@
       <c r="IS9" s="19"/>
       <c r="IT9" s="19"/>
     </row>
-    <row r="10" spans="1:254" ht="15" customHeight="1">
+    <row r="10" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -9851,7 +9850,7 @@
       <c r="IS10" s="19"/>
       <c r="IT10" s="19"/>
     </row>
-    <row r="11" spans="1:254" ht="15" customHeight="1">
+    <row r="11" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -10111,7 +10110,7 @@
       <c r="IS11" s="19"/>
       <c r="IT11" s="19"/>
     </row>
-    <row r="12" spans="1:254" ht="15" customHeight="1">
+    <row r="12" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -10387,7 +10386,7 @@
       <c r="IS12" s="19"/>
       <c r="IT12" s="19"/>
     </row>
-    <row r="13" spans="1:254" ht="15" customHeight="1">
+    <row r="13" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -10663,7 +10662,7 @@
       <c r="IS13" s="19"/>
       <c r="IT13" s="19"/>
     </row>
-    <row r="14" spans="1:254" ht="15" customHeight="1">
+    <row r="14" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -10939,7 +10938,7 @@
       <c r="IS14" s="19"/>
       <c r="IT14" s="19"/>
     </row>
-    <row r="15" spans="1:254" ht="15" customHeight="1">
+    <row r="15" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -11209,7 +11208,7 @@
       <c r="IS15" s="19"/>
       <c r="IT15" s="19"/>
     </row>
-    <row r="16" spans="1:254" ht="15" customHeight="1">
+    <row r="16" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -11471,7 +11470,7 @@
       <c r="IS16" s="19"/>
       <c r="IT16" s="19"/>
     </row>
-    <row r="17" spans="1:254" ht="15" customHeight="1">
+    <row r="17" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -11745,7 +11744,7 @@
       <c r="IS17" s="19"/>
       <c r="IT17" s="19"/>
     </row>
-    <row r="18" spans="1:254" ht="15" customHeight="1">
+    <row r="18" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -12005,7 +12004,7 @@
       <c r="IS18" s="19"/>
       <c r="IT18" s="19"/>
     </row>
-    <row r="19" spans="1:254" ht="15" customHeight="1">
+    <row r="19" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -12281,7 +12280,7 @@
       <c r="IS19" s="19"/>
       <c r="IT19" s="19"/>
     </row>
-    <row r="20" spans="1:254" ht="15" customHeight="1">
+    <row r="20" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -12553,7 +12552,7 @@
       <c r="IS20" s="19"/>
       <c r="IT20" s="19"/>
     </row>
-    <row r="21" spans="1:254" ht="15" customHeight="1">
+    <row r="21" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -12821,7 +12820,7 @@
       <c r="IS21" s="19"/>
       <c r="IT21" s="19"/>
     </row>
-    <row r="22" spans="1:254" ht="15" customHeight="1">
+    <row r="22" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -13083,7 +13082,7 @@
       <c r="IS22" s="19"/>
       <c r="IT22" s="19"/>
     </row>
-    <row r="23" spans="1:254" ht="15" customHeight="1">
+    <row r="23" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -13351,7 +13350,7 @@
       <c r="IS23" s="19"/>
       <c r="IT23" s="19"/>
     </row>
-    <row r="24" spans="1:254" ht="15" customHeight="1">
+    <row r="24" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -13626,7 +13625,7 @@
       <c r="IS24" s="19"/>
       <c r="IT24" s="19"/>
     </row>
-    <row r="25" spans="1:254" ht="15" customHeight="1">
+    <row r="25" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -13902,7 +13901,7 @@
       <c r="IS25" s="19"/>
       <c r="IT25" s="19"/>
     </row>
-    <row r="26" spans="1:254" ht="15" customHeight="1">
+    <row r="26" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -14178,7 +14177,7 @@
       <c r="IS26" s="19"/>
       <c r="IT26" s="19"/>
     </row>
-    <row r="27" spans="1:254" ht="15" customHeight="1">
+    <row r="27" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -14454,7 +14453,7 @@
       <c r="IS27" s="19"/>
       <c r="IT27" s="19"/>
     </row>
-    <row r="28" spans="1:254" ht="15" customHeight="1">
+    <row r="28" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -14730,7 +14729,7 @@
       <c r="IS28" s="19"/>
       <c r="IT28" s="19"/>
     </row>
-    <row r="29" spans="1:254" ht="15" customHeight="1">
+    <row r="29" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
@@ -14998,7 +14997,7 @@
       <c r="IS29" s="19"/>
       <c r="IT29" s="19"/>
     </row>
-    <row r="30" spans="1:254" ht="15" customHeight="1">
+    <row r="30" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -15270,7 +15269,7 @@
       <c r="IS30" s="19"/>
       <c r="IT30" s="19"/>
     </row>
-    <row r="31" spans="1:254" ht="15" customHeight="1">
+    <row r="31" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -15543,7 +15542,7 @@
       <c r="IS31" s="19"/>
       <c r="IT31" s="19"/>
     </row>
-    <row r="32" spans="1:254" ht="15" customHeight="1">
+    <row r="32" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -15803,7 +15802,7 @@
       <c r="IS32" s="19"/>
       <c r="IT32" s="19"/>
     </row>
-    <row r="33" spans="1:254" ht="15" customHeight="1">
+    <row r="33" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -16063,7 +16062,7 @@
       <c r="IS33" s="19"/>
       <c r="IT33" s="19"/>
     </row>
-    <row r="34" spans="1:254" ht="15" customHeight="1">
+    <row r="34" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
@@ -16339,7 +16338,7 @@
       <c r="IS34" s="19"/>
       <c r="IT34" s="19"/>
     </row>
-    <row r="35" spans="1:254" ht="15" customHeight="1">
+    <row r="35" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -16609,7 +16608,7 @@
       <c r="IS35" s="19"/>
       <c r="IT35" s="19"/>
     </row>
-    <row r="36" spans="1:254" ht="15" customHeight="1">
+    <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -16881,7 +16880,7 @@
       <c r="IS36" s="19"/>
       <c r="IT36" s="19"/>
     </row>
-    <row r="37" spans="1:254" ht="15" customHeight="1">
+    <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>80</v>
       </c>
@@ -17149,7 +17148,7 @@
       <c r="IS37" s="19"/>
       <c r="IT37" s="19"/>
     </row>
-    <row r="38" spans="1:254" ht="15" customHeight="1">
+    <row r="38" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -17425,7 +17424,7 @@
       <c r="IS38" s="19"/>
       <c r="IT38" s="19"/>
     </row>
-    <row r="39" spans="1:254" ht="15" customHeight="1">
+    <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -17695,7 +17694,7 @@
       <c r="IS39" s="19"/>
       <c r="IT39" s="19"/>
     </row>
-    <row r="40" spans="1:254" ht="15" customHeight="1">
+    <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
@@ -17971,7 +17970,7 @@
       <c r="IS40" s="19"/>
       <c r="IT40" s="19"/>
     </row>
-    <row r="41" spans="1:254" ht="15" customHeight="1">
+    <row r="41" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>88</v>
       </c>
@@ -18239,7 +18238,7 @@
       <c r="IS41" s="19"/>
       <c r="IT41" s="19"/>
     </row>
-    <row r="42" spans="1:254" ht="15" customHeight="1">
+    <row r="42" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>90</v>
       </c>
@@ -18515,7 +18514,7 @@
       <c r="IS42" s="19"/>
       <c r="IT42" s="19"/>
     </row>
-    <row r="43" spans="1:254" ht="15" customHeight="1">
+    <row r="43" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>92</v>
       </c>
@@ -18791,7 +18790,7 @@
       <c r="IS43" s="19"/>
       <c r="IT43" s="19"/>
     </row>
-    <row r="44" spans="1:254" ht="15" customHeight="1">
+    <row r="44" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
@@ -19063,7 +19062,7 @@
       <c r="IS44" s="19"/>
       <c r="IT44" s="19"/>
     </row>
-    <row r="45" spans="1:254" ht="15" customHeight="1">
+    <row r="45" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
@@ -19331,7 +19330,7 @@
       <c r="IS45" s="19"/>
       <c r="IT45" s="19"/>
     </row>
-    <row r="46" spans="1:254" ht="15" customHeight="1">
+    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
@@ -19607,7 +19606,7 @@
       <c r="IS46" s="19"/>
       <c r="IT46" s="19"/>
     </row>
-    <row r="47" spans="1:254" ht="15" customHeight="1">
+    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
@@ -19877,7 +19876,7 @@
       <c r="IS47" s="19"/>
       <c r="IT47" s="19"/>
     </row>
-    <row r="48" spans="1:254" ht="15" customHeight="1">
+    <row r="48" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
@@ -20147,7 +20146,7 @@
       <c r="IS48" s="19"/>
       <c r="IT48" s="19"/>
     </row>
-    <row r="49" spans="1:254" ht="15" customHeight="1">
+    <row r="49" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>106</v>
       </c>
@@ -20423,7 +20422,7 @@
       <c r="IS49" s="19"/>
       <c r="IT49" s="19"/>
     </row>
-    <row r="50" spans="1:254" ht="15" customHeight="1">
+    <row r="50" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>104</v>
       </c>
@@ -20693,7 +20692,7 @@
       <c r="IS50" s="19"/>
       <c r="IT50" s="19"/>
     </row>
-    <row r="51" spans="1:254" ht="15" customHeight="1">
+    <row r="51" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -20969,7 +20968,7 @@
       <c r="IS51" s="19"/>
       <c r="IT51" s="19"/>
     </row>
-    <row r="52" spans="1:254" ht="15" customHeight="1">
+    <row r="52" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -21225,7 +21224,7 @@
       <c r="IS52" s="19"/>
       <c r="IT52" s="19"/>
     </row>
-    <row r="53" spans="1:254" ht="15" customHeight="1">
+    <row r="53" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -21481,7 +21480,7 @@
       <c r="IS53" s="19"/>
       <c r="IT53" s="19"/>
     </row>
-    <row r="54" spans="1:254" ht="15" customHeight="1">
+    <row r="54" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -21737,7 +21736,7 @@
       <c r="IS54" s="19"/>
       <c r="IT54" s="19"/>
     </row>
-    <row r="55" spans="1:254" ht="15" customHeight="1">
+    <row r="55" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -22006,11 +22005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="17" customWidth="1"/>
@@ -22018,7 +22017,7 @@
     <col min="11" max="254" width="8.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="57" customHeight="1">
+    <row r="1" spans="1:254" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22294,7 +22293,7 @@
       <c r="IS1" s="19"/>
       <c r="IT1" s="19"/>
     </row>
-    <row r="2" spans="1:254" ht="15" customHeight="1">
+    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -22570,7 +22569,7 @@
       <c r="IS2" s="19"/>
       <c r="IT2" s="19"/>
     </row>
-    <row r="3" spans="1:254" ht="15" customHeight="1">
+    <row r="3" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -22845,7 +22844,7 @@
       <c r="IS3" s="19"/>
       <c r="IT3" s="19"/>
     </row>
-    <row r="4" spans="1:254" ht="15" customHeight="1">
+    <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -23121,7 +23120,7 @@
       <c r="IS4" s="19"/>
       <c r="IT4" s="19"/>
     </row>
-    <row r="5" spans="1:254" ht="15" customHeight="1">
+    <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -23397,7 +23396,7 @@
       <c r="IS5" s="19"/>
       <c r="IT5" s="19"/>
     </row>
-    <row r="6" spans="1:254" ht="15" customHeight="1">
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -23673,7 +23672,7 @@
       <c r="IS6" s="19"/>
       <c r="IT6" s="19"/>
     </row>
-    <row r="7" spans="1:254" ht="15" customHeight="1">
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -23949,7 +23948,7 @@
       <c r="IS7" s="19"/>
       <c r="IT7" s="19"/>
     </row>
-    <row r="8" spans="1:254" ht="15" customHeight="1">
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -24211,7 +24210,7 @@
       <c r="IS8" s="19"/>
       <c r="IT8" s="19"/>
     </row>
-    <row r="9" spans="1:254" ht="15" customHeight="1">
+    <row r="9" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -24477,7 +24476,7 @@
       <c r="IS9" s="19"/>
       <c r="IT9" s="19"/>
     </row>
-    <row r="10" spans="1:254" ht="15" customHeight="1">
+    <row r="10" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -24753,7 +24752,7 @@
       <c r="IS10" s="19"/>
       <c r="IT10" s="19"/>
     </row>
-    <row r="11" spans="1:254" ht="15" customHeight="1">
+    <row r="11" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -25013,7 +25012,7 @@
       <c r="IS11" s="19"/>
       <c r="IT11" s="19"/>
     </row>
-    <row r="12" spans="1:254" ht="15" customHeight="1">
+    <row r="12" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -25289,7 +25288,7 @@
       <c r="IS12" s="19"/>
       <c r="IT12" s="19"/>
     </row>
-    <row r="13" spans="1:254" ht="15" customHeight="1">
+    <row r="13" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -25565,7 +25564,7 @@
       <c r="IS13" s="19"/>
       <c r="IT13" s="19"/>
     </row>
-    <row r="14" spans="1:254" ht="15" customHeight="1">
+    <row r="14" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -25841,7 +25840,7 @@
       <c r="IS14" s="19"/>
       <c r="IT14" s="19"/>
     </row>
-    <row r="15" spans="1:254" ht="15" customHeight="1">
+    <row r="15" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -26111,7 +26110,7 @@
       <c r="IS15" s="19"/>
       <c r="IT15" s="19"/>
     </row>
-    <row r="16" spans="1:254" ht="15" customHeight="1">
+    <row r="16" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -26373,7 +26372,7 @@
       <c r="IS16" s="19"/>
       <c r="IT16" s="19"/>
     </row>
-    <row r="17" spans="1:254" ht="15" customHeight="1">
+    <row r="17" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -26647,7 +26646,7 @@
       <c r="IS17" s="19"/>
       <c r="IT17" s="19"/>
     </row>
-    <row r="18" spans="1:254" ht="15" customHeight="1">
+    <row r="18" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -26907,7 +26906,7 @@
       <c r="IS18" s="19"/>
       <c r="IT18" s="19"/>
     </row>
-    <row r="19" spans="1:254" ht="15" customHeight="1">
+    <row r="19" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -27183,7 +27182,7 @@
       <c r="IS19" s="19"/>
       <c r="IT19" s="19"/>
     </row>
-    <row r="20" spans="1:254" ht="15" customHeight="1">
+    <row r="20" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -27455,7 +27454,7 @@
       <c r="IS20" s="19"/>
       <c r="IT20" s="19"/>
     </row>
-    <row r="21" spans="1:254" ht="15" customHeight="1">
+    <row r="21" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -27723,7 +27722,7 @@
       <c r="IS21" s="19"/>
       <c r="IT21" s="19"/>
     </row>
-    <row r="22" spans="1:254" ht="15" customHeight="1">
+    <row r="22" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -27985,7 +27984,7 @@
       <c r="IS22" s="19"/>
       <c r="IT22" s="19"/>
     </row>
-    <row r="23" spans="1:254" ht="15" customHeight="1">
+    <row r="23" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -28253,7 +28252,7 @@
       <c r="IS23" s="19"/>
       <c r="IT23" s="19"/>
     </row>
-    <row r="24" spans="1:254" ht="15" customHeight="1">
+    <row r="24" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -28528,7 +28527,7 @@
       <c r="IS24" s="19"/>
       <c r="IT24" s="19"/>
     </row>
-    <row r="25" spans="1:254" ht="15" customHeight="1">
+    <row r="25" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -28804,7 +28803,7 @@
       <c r="IS25" s="19"/>
       <c r="IT25" s="19"/>
     </row>
-    <row r="26" spans="1:254" ht="15" customHeight="1">
+    <row r="26" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -29080,7 +29079,7 @@
       <c r="IS26" s="19"/>
       <c r="IT26" s="19"/>
     </row>
-    <row r="27" spans="1:254" ht="15" customHeight="1">
+    <row r="27" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -29356,7 +29355,7 @@
       <c r="IS27" s="19"/>
       <c r="IT27" s="19"/>
     </row>
-    <row r="28" spans="1:254" ht="15" customHeight="1">
+    <row r="28" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -29632,7 +29631,7 @@
       <c r="IS28" s="19"/>
       <c r="IT28" s="19"/>
     </row>
-    <row r="29" spans="1:254" ht="15" customHeight="1">
+    <row r="29" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
@@ -29900,7 +29899,7 @@
       <c r="IS29" s="19"/>
       <c r="IT29" s="19"/>
     </row>
-    <row r="30" spans="1:254" ht="15" customHeight="1">
+    <row r="30" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -30172,7 +30171,7 @@
       <c r="IS30" s="19"/>
       <c r="IT30" s="19"/>
     </row>
-    <row r="31" spans="1:254" ht="15" customHeight="1">
+    <row r="31" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -30446,7 +30445,7 @@
       <c r="IS31" s="19"/>
       <c r="IT31" s="19"/>
     </row>
-    <row r="32" spans="1:254" ht="15" customHeight="1">
+    <row r="32" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -30706,7 +30705,7 @@
       <c r="IS32" s="19"/>
       <c r="IT32" s="19"/>
     </row>
-    <row r="33" spans="1:254" ht="15" customHeight="1">
+    <row r="33" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -30966,7 +30965,7 @@
       <c r="IS33" s="19"/>
       <c r="IT33" s="19"/>
     </row>
-    <row r="34" spans="1:254" ht="15" customHeight="1">
+    <row r="34" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
@@ -31242,7 +31241,7 @@
       <c r="IS34" s="19"/>
       <c r="IT34" s="19"/>
     </row>
-    <row r="35" spans="1:254" ht="15" customHeight="1">
+    <row r="35" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -31512,7 +31511,7 @@
       <c r="IS35" s="19"/>
       <c r="IT35" s="19"/>
     </row>
-    <row r="36" spans="1:254" ht="15" customHeight="1">
+    <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -31784,7 +31783,7 @@
       <c r="IS36" s="19"/>
       <c r="IT36" s="19"/>
     </row>
-    <row r="37" spans="1:254" ht="15" customHeight="1">
+    <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>80</v>
       </c>
@@ -32052,7 +32051,7 @@
       <c r="IS37" s="19"/>
       <c r="IT37" s="19"/>
     </row>
-    <row r="38" spans="1:254" ht="15" customHeight="1">
+    <row r="38" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -32328,7 +32327,7 @@
       <c r="IS38" s="19"/>
       <c r="IT38" s="19"/>
     </row>
-    <row r="39" spans="1:254" ht="15" customHeight="1">
+    <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -32598,7 +32597,7 @@
       <c r="IS39" s="19"/>
       <c r="IT39" s="19"/>
     </row>
-    <row r="40" spans="1:254" ht="15" customHeight="1">
+    <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
@@ -32874,7 +32873,7 @@
       <c r="IS40" s="19"/>
       <c r="IT40" s="19"/>
     </row>
-    <row r="41" spans="1:254" ht="15" customHeight="1">
+    <row r="41" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>88</v>
       </c>
@@ -33142,7 +33141,7 @@
       <c r="IS41" s="19"/>
       <c r="IT41" s="19"/>
     </row>
-    <row r="42" spans="1:254" ht="15" customHeight="1">
+    <row r="42" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>90</v>
       </c>
@@ -33418,7 +33417,7 @@
       <c r="IS42" s="19"/>
       <c r="IT42" s="19"/>
     </row>
-    <row r="43" spans="1:254" ht="15" customHeight="1">
+    <row r="43" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>92</v>
       </c>
@@ -33678,7 +33677,7 @@
       <c r="IS43" s="19"/>
       <c r="IT43" s="19"/>
     </row>
-    <row r="44" spans="1:254" ht="15" customHeight="1">
+    <row r="44" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
@@ -33950,7 +33949,7 @@
       <c r="IS44" s="19"/>
       <c r="IT44" s="19"/>
     </row>
-    <row r="45" spans="1:254" ht="15" customHeight="1">
+    <row r="45" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>96</v>
       </c>
@@ -34218,7 +34217,7 @@
       <c r="IS45" s="19"/>
       <c r="IT45" s="19"/>
     </row>
-    <row r="46" spans="1:254" ht="15" customHeight="1">
+    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>100</v>
       </c>
@@ -34494,7 +34493,7 @@
       <c r="IS46" s="19"/>
       <c r="IT46" s="19"/>
     </row>
-    <row r="47" spans="1:254" ht="15" customHeight="1">
+    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>98</v>
       </c>
@@ -34764,7 +34763,7 @@
       <c r="IS47" s="19"/>
       <c r="IT47" s="19"/>
     </row>
-    <row r="48" spans="1:254" ht="15" customHeight="1">
+    <row r="48" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
@@ -35034,7 +35033,7 @@
       <c r="IS48" s="19"/>
       <c r="IT48" s="19"/>
     </row>
-    <row r="49" spans="1:254" ht="15" customHeight="1">
+    <row r="49" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>106</v>
       </c>
@@ -35310,7 +35309,7 @@
       <c r="IS49" s="19"/>
       <c r="IT49" s="19"/>
     </row>
-    <row r="50" spans="1:254" ht="15" customHeight="1">
+    <row r="50" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>104</v>
       </c>
@@ -35580,7 +35579,7 @@
       <c r="IS50" s="19"/>
       <c r="IT50" s="19"/>
     </row>
-    <row r="51" spans="1:254" ht="15" customHeight="1">
+    <row r="51" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -35856,7 +35855,7 @@
       <c r="IS51" s="19"/>
       <c r="IT51" s="19"/>
     </row>
-    <row r="52" spans="1:254" ht="15" customHeight="1">
+    <row r="52" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -36112,7 +36111,7 @@
       <c r="IS52" s="19"/>
       <c r="IT52" s="19"/>
     </row>
-    <row r="53" spans="1:254" ht="15" customHeight="1">
+    <row r="53" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -36368,7 +36367,7 @@
       <c r="IS53" s="19"/>
       <c r="IT53" s="19"/>
     </row>
-    <row r="54" spans="1:254" ht="15" customHeight="1">
+    <row r="54" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -36624,7 +36623,7 @@
       <c r="IS54" s="19"/>
       <c r="IT54" s="19"/>
     </row>
-    <row r="55" spans="1:254" ht="15" customHeight="1">
+    <row r="55" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -36894,10 +36893,10 @@
   <dimension ref="A1:IT52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="50" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="50" customWidth="1"/>
@@ -36907,7 +36906,7 @@
     <col min="255" max="16384" width="8.85546875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" customHeight="1">
+    <row r="1" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -36943,7 +36942,7 @@
       </c>
       <c r="L1" s="48"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
@@ -36963,7 +36962,7 @@
       </c>
       <c r="L2" s="48"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
@@ -36999,7 +36998,7 @@
       </c>
       <c r="L3" s="48"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
@@ -37035,7 +37034,7 @@
       </c>
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>16</v>
       </c>
@@ -37071,7 +37070,7 @@
       </c>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>18</v>
       </c>
@@ -37107,7 +37106,7 @@
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
@@ -37143,7 +37142,7 @@
       </c>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>22</v>
       </c>
@@ -37165,7 +37164,7 @@
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
@@ -37189,7 +37188,7 @@
       </c>
       <c r="L9" s="48"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>26</v>
       </c>
@@ -37225,7 +37224,7 @@
       </c>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>28</v>
       </c>
@@ -37257,7 +37256,7 @@
       </c>
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -37293,7 +37292,7 @@
       </c>
       <c r="L12" s="48"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>32</v>
       </c>
@@ -37329,7 +37328,7 @@
       </c>
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>34</v>
       </c>
@@ -37359,7 +37358,7 @@
       </c>
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>36</v>
       </c>
@@ -37379,7 +37378,7 @@
       </c>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>38</v>
       </c>
@@ -37415,7 +37414,7 @@
       </c>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
@@ -37451,7 +37450,7 @@
       </c>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>42</v>
       </c>
@@ -37471,7 +37470,7 @@
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>44</v>
       </c>
@@ -37507,7 +37506,7 @@
       </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>46</v>
       </c>
@@ -37529,7 +37528,7 @@
       </c>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>48</v>
       </c>
@@ -37557,7 +37556,7 @@
       </c>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>50</v>
       </c>
@@ -37589,7 +37588,7 @@
       </c>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>52</v>
       </c>
@@ -37617,7 +37616,7 @@
       </c>
       <c r="L23" s="48"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>54</v>
       </c>
@@ -37651,9 +37650,9 @@
       </c>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>57</v>
@@ -37687,7 +37686,7 @@
       </c>
       <c r="L25" s="48"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>58</v>
       </c>
@@ -37723,7 +37722,7 @@
       </c>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>60</v>
       </c>
@@ -37759,7 +37758,7 @@
       </c>
       <c r="L27" s="48"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>62</v>
       </c>
@@ -37779,7 +37778,7 @@
       </c>
       <c r="L28" s="48"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>64</v>
       </c>
@@ -37815,7 +37814,7 @@
       </c>
       <c r="L29" s="48"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>66</v>
       </c>
@@ -37847,7 +37846,7 @@
       </c>
       <c r="L30" s="48"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>68</v>
       </c>
@@ -37867,7 +37866,7 @@
       </c>
       <c r="L31" s="48"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>70</v>
       </c>
@@ -37887,7 +37886,7 @@
       </c>
       <c r="L32" s="48"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>72</v>
       </c>
@@ -37907,7 +37906,7 @@
       </c>
       <c r="L33" s="48"/>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>74</v>
       </c>
@@ -37943,7 +37942,7 @@
       </c>
       <c r="L34" s="48"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>76</v>
       </c>
@@ -37971,7 +37970,7 @@
       </c>
       <c r="L35" s="48"/>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>78</v>
       </c>
@@ -38003,7 +38002,7 @@
       </c>
       <c r="L36" s="48"/>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>80</v>
       </c>
@@ -38031,7 +38030,7 @@
       </c>
       <c r="L37" s="48"/>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>82</v>
       </c>
@@ -38067,7 +38066,7 @@
       </c>
       <c r="L38" s="48"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>84</v>
       </c>
@@ -38097,7 +38096,7 @@
       </c>
       <c r="L39" s="48"/>
     </row>
-    <row r="40" spans="1:12" ht="16.7" customHeight="1">
+    <row r="40" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>86</v>
       </c>
@@ -38133,7 +38132,7 @@
       </c>
       <c r="L40" s="48"/>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>88</v>
       </c>
@@ -38161,7 +38160,7 @@
       </c>
       <c r="L41" s="48"/>
     </row>
-    <row r="42" spans="1:12" ht="32.25" customHeight="1">
+    <row r="42" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>90</v>
       </c>
@@ -38197,7 +38196,7 @@
       </c>
       <c r="L42" s="48"/>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>92</v>
       </c>
@@ -38217,7 +38216,7 @@
       </c>
       <c r="L43" s="48"/>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>94</v>
       </c>
@@ -38249,7 +38248,7 @@
       </c>
       <c r="L44" s="48"/>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>96</v>
       </c>
@@ -38277,7 +38276,7 @@
       </c>
       <c r="L45" s="48"/>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>98</v>
       </c>
@@ -38307,7 +38306,7 @@
       </c>
       <c r="L46" s="48"/>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>100</v>
       </c>
@@ -38329,7 +38328,7 @@
       </c>
       <c r="L47" s="48"/>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>102</v>
       </c>
@@ -38359,7 +38358,7 @@
       </c>
       <c r="L48" s="45"/>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>104</v>
       </c>
@@ -38389,7 +38388,7 @@
       </c>
       <c r="L49" s="48"/>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>106</v>
       </c>
@@ -38425,7 +38424,7 @@
       </c>
       <c r="L50" s="48"/>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>108</v>
       </c>
@@ -38461,7 +38460,7 @@
       </c>
       <c r="L51" s="48"/>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -38497,6 +38496,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085A98439AFA81E498F77D25C786519F4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2eee30f09807eeac4a01227db7fe7da3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="761c6e68-1cb6-4689-a9f8-1fc6e959a784" xmlns:ns3="92180e4e-06c3-4953-9d7f-e8282e53295e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12701c335ef03a3ee46b176a305484f3" ns2:_="" ns3:_="">
     <xsd:import namespace="761c6e68-1cb6-4689-a9f8-1fc6e959a784"/>
@@ -38707,20 +38712,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61908B07-54D0-41B3-8455-6EB578778097}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61908B07-54D0-41B3-8455-6EB578778097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="761c6e68-1cb6-4689-a9f8-1fc6e959a784"/>
+    <ds:schemaRef ds:uri="92180e4e-06c3-4953-9d7f-e8282e53295e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Data for web team 2021 v7.xlsx
+++ b/data/Data for web team 2021 v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroberts\OneDrive - The Council of State Governments\Desktop\csgjc\repos\cc_survey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9CC764-6C3A-4148-92BD-36773E4FDA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3835B149-7161-4425-A997-A9564EE04089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="255" windowWidth="14715" windowHeight="14100" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admissions 2018" sheetId="1" r:id="rId1"/>
@@ -432,6 +432,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1802,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2780,9 @@
       <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="25">
+        <v>3585</v>
+      </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -3372,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IS52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4355,7 +4358,9 @@
       <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="25">
+        <v>3122</v>
+      </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -7103,8 +7108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15809,7 +15814,9 @@
       <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5">
+        <v>7030</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -22006,7 +22013,7 @@
   <dimension ref="A1:IT55"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30712,7 +30719,9 @@
       <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5">
+        <v>6723</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -38487,21 +38496,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085A98439AFA81E498F77D25C786519F4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2eee30f09807eeac4a01227db7fe7da3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="761c6e68-1cb6-4689-a9f8-1fc6e959a784" xmlns:ns3="92180e4e-06c3-4953-9d7f-e8282e53295e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12701c335ef03a3ee46b176a305484f3" ns2:_="" ns3:_="">
     <xsd:import namespace="761c6e68-1cb6-4689-a9f8-1fc6e959a784"/>
@@ -38712,24 +38706,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61908B07-54D0-41B3-8455-6EB578778097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38746,4 +38738,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>